--- a/Monitor_probabilities_AUC.xlsx
+++ b/Monitor_probabilities_AUC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\Desktop\PhD\Monitor\Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E34112-F8A6-4D60-A143-6A0D3680AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07769E8F-54F9-4B11-9C35-4B78AED27575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -44,16 +44,64 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>prob_MRI (0.1_4_0.7_0_2_500)</t>
+    <t>prob_MRI_NIRS(0.05_3_0.8_0_1_500)</t>
   </si>
   <si>
-    <t>prob_MRI (0.01_4_1_1_1_100)</t>
+    <t>prob_MRI_NIRS(0.1_4_1_1_1_100)</t>
   </si>
   <si>
-    <t>prob HIE (0.05_5_0.8_0_1_50)</t>
+    <t>95% CI</t>
   </si>
   <si>
-    <t>prob HIE (0.1_4_0.9_0_1_50)</t>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Senistivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>prob_HIE_NIRS(0.1_6_0.8_0_1_100)</t>
+  </si>
+  <si>
+    <t>prob_HIE_NIRS(0.01_6_0.9_1_1_500)</t>
+  </si>
+  <si>
+    <t>prob_MRI (0.01_3_0.7_1_2_100)</t>
+  </si>
+  <si>
+    <t>prob_MRI (0.05_3_1_0_2_500)</t>
+  </si>
+  <si>
+    <t>prob HIE (0.1_6_0.7_0_1_100)</t>
+  </si>
+  <si>
+    <t>prob HIE (0.05_3_1_0_1_500)</t>
+  </si>
+  <si>
+    <t>0.3244    0.6560</t>
+  </si>
+  <si>
+    <t>0.3063    0.6482</t>
+  </si>
+  <si>
+    <t>0.6838    0.9110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6577    0.8948</t>
+  </si>
+  <si>
+    <t>0.6862    0.9250</t>
+  </si>
+  <si>
+    <t>0.6866    0.9163</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5626    0.8326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5575    0.8268</t>
   </si>
 </sst>
 </file>
@@ -69,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +136,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -101,16 +161,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -385,1060 +453,1911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.34132380000000001</v>
+        <v>0.36124104000000001</v>
       </c>
       <c r="C2">
-        <v>0.31436302999999999</v>
+        <v>0.42445690000000003</v>
       </c>
       <c r="D2">
-        <v>0.12681709999999999</v>
+        <v>8.7431919999999996E-2</v>
       </c>
       <c r="E2">
-        <v>0.10332236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.9053479999999995E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.42749077000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.43983132000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.25416784999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.38721614999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.1281789E-3</v>
+        <v>0.25462045999999999</v>
       </c>
       <c r="C3">
-        <v>0.23559408000000001</v>
+        <v>8.6662270000000003E-3</v>
       </c>
       <c r="D3">
-        <v>0.56781510000000002</v>
+        <v>0.71438235000000005</v>
       </c>
       <c r="E3">
-        <v>0.5818662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.74156575999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.16751332999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.18412970000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.86110127000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.8008478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.3958720000000001E-2</v>
+        <v>0.30546820000000002</v>
       </c>
       <c r="C4">
-        <v>0.24055614</v>
+        <v>0.16188026999999999</v>
       </c>
       <c r="D4">
-        <v>0.11919188</v>
+        <v>2.0824423000000002E-2</v>
       </c>
       <c r="E4">
-        <v>4.6711057E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3151642E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.15371029999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.14107454</v>
+      </c>
+      <c r="H4">
+        <v>0.73227070000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.72887829999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.43606886</v>
+        <v>0.48539465999999998</v>
       </c>
       <c r="C5">
-        <v>0.53598325999999996</v>
+        <v>0.27835503</v>
       </c>
       <c r="D5">
-        <v>0.86480140000000005</v>
+        <v>0.96367590000000003</v>
       </c>
       <c r="E5">
-        <v>0.94116264999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.96326524000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.27135140000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.29366704999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.89939075999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.85361560000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.15408595999999999</v>
+        <v>0.38305768000000001</v>
       </c>
       <c r="C6">
-        <v>0.34461631999999998</v>
+        <v>5.7396434000000003E-2</v>
       </c>
       <c r="D6">
-        <v>0.53336879999999998</v>
+        <v>0.80226620000000004</v>
       </c>
       <c r="E6">
-        <v>0.66982819999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.80674000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.45657599999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.46796796000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.88210239999999995</v>
+      </c>
+      <c r="I6">
+        <v>0.84363924999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.11542921</v>
+        <v>0.32068118000000001</v>
       </c>
       <c r="C7">
-        <v>0.2452761</v>
+        <v>0.21841994000000001</v>
       </c>
       <c r="D7">
-        <v>0.80547869999999999</v>
+        <v>0.88319164999999999</v>
       </c>
       <c r="E7">
-        <v>0.90062580000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.89521295000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.16822195000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.17204875</v>
+      </c>
+      <c r="H7">
+        <v>0.84320870000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.83106000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.4976925999999998E-2</v>
+        <v>0.30092079999999999</v>
       </c>
       <c r="C8">
-        <v>0.2452761</v>
+        <v>4.9161169999999997E-2</v>
       </c>
       <c r="D8">
-        <v>0.55141090000000004</v>
+        <v>0.54095733000000001</v>
       </c>
       <c r="E8">
-        <v>0.39852982999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1903937</v>
+      </c>
+      <c r="F8">
+        <v>0.24721596000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.26095963</v>
+      </c>
+      <c r="H8">
+        <v>0.84004027000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.79904889999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.0230804E-2</v>
+        <v>0.26559460000000001</v>
       </c>
       <c r="C9">
-        <v>0.24077933000000001</v>
+        <v>1.9443812000000001E-2</v>
       </c>
       <c r="D9">
-        <v>0.47265406999999998</v>
+        <v>0.46109783999999998</v>
       </c>
       <c r="E9">
-        <v>0.56703400000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.54205729999999996</v>
+      </c>
+      <c r="F9">
+        <v>0.22281024999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.23286390000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.95212764000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.88984525000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.3336800000000004E-3</v>
+        <v>0.27814060000000002</v>
       </c>
       <c r="C10">
-        <v>0.24027693</v>
+        <v>1.5667154999999999E-2</v>
       </c>
       <c r="D10">
-        <v>0.22710279999999999</v>
+        <v>0.39147567999999999</v>
       </c>
       <c r="E10">
-        <v>0.30507582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.46754279999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.13343446</v>
+      </c>
+      <c r="G10">
+        <v>0.15642186</v>
+      </c>
+      <c r="H10">
+        <v>0.60213846000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.63277600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.4044560000000003E-2</v>
+        <v>0.37853540000000002</v>
       </c>
       <c r="C11">
-        <v>0.46127321999999998</v>
+        <v>7.7594854000000005E-2</v>
       </c>
       <c r="D11">
-        <v>0.56058127000000002</v>
+        <v>0.51438269999999997</v>
       </c>
       <c r="E11">
-        <v>0.60521084000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5094379</v>
+      </c>
+      <c r="F11">
+        <v>0.69930740000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.65946364000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.92342639999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.86115920000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.2890944999999999E-2</v>
+        <v>0.30291304000000002</v>
       </c>
       <c r="C12">
-        <v>0.25030683999999997</v>
+        <v>8.9750945999999998E-2</v>
       </c>
       <c r="D12">
-        <v>0.78301900000000002</v>
+        <v>0.94905673999999995</v>
       </c>
       <c r="E12">
-        <v>0.91172534000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.93244119999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.29420170000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.29341060000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.74001620000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.70975699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.808867</v>
+        <v>0.55314189999999996</v>
       </c>
       <c r="C13">
-        <v>0.54977589999999998</v>
+        <v>0.57760054000000005</v>
       </c>
       <c r="D13">
-        <v>0.83073520000000001</v>
+        <v>0.88601260000000004</v>
       </c>
       <c r="E13">
-        <v>0.86926853999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.93581985999999995</v>
+      </c>
+      <c r="F13">
+        <v>0.35419148</v>
+      </c>
+      <c r="G13">
+        <v>0.32999395999999998</v>
+      </c>
+      <c r="H13">
+        <v>0.80059515999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.77247672999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.42583427000000001</v>
+        <v>0.45173471999999998</v>
       </c>
       <c r="C14">
-        <v>0.32314894</v>
+        <v>0.39920127</v>
       </c>
       <c r="D14">
-        <v>0.25508599999999998</v>
+        <v>7.8797300000000001E-2</v>
       </c>
       <c r="E14">
-        <v>0.21254458000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.4676800000000003E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.10013384</v>
+      </c>
+      <c r="G14">
+        <v>0.102688245</v>
+      </c>
+      <c r="H14">
+        <v>0.64067629999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.6344284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6.1161607999999999E-2</v>
+        <v>0.28619625999999998</v>
       </c>
       <c r="C15">
-        <v>0.23058334</v>
+        <v>0.16784673999999999</v>
       </c>
       <c r="D15">
-        <v>0.85666419999999999</v>
+        <v>0.88441013999999996</v>
       </c>
       <c r="E15">
-        <v>0.88785314999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.84399650000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.34567155999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.34708329999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.97510319999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.94743230000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.23689117000000001</v>
+        <v>0.3421825</v>
       </c>
       <c r="C16">
-        <v>0.28398006999999997</v>
+        <v>4.1238802999999997E-2</v>
       </c>
       <c r="D16">
-        <v>0.22065997000000001</v>
+        <v>5.8875381999999997E-2</v>
       </c>
       <c r="E16">
-        <v>0.14968998999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.3352494999999995E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.25342724</v>
+      </c>
+      <c r="G16">
+        <v>0.26766032000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.71108024999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.66923379999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.28996706</v>
+        <v>0.32459779999999999</v>
       </c>
       <c r="C17">
-        <v>0.27172383999999999</v>
+        <v>0.52005654999999995</v>
       </c>
       <c r="D17">
-        <v>0.74411660000000002</v>
+        <v>0.63948196000000002</v>
       </c>
       <c r="E17">
-        <v>0.69063985000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5869143</v>
+      </c>
+      <c r="F17">
+        <v>0.22338348999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.23498348999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.84504760000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.8175962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.84240919999999997</v>
+        <v>0.49577346</v>
       </c>
       <c r="C18">
-        <v>0.32375029999999999</v>
+        <v>0.72466540000000002</v>
       </c>
       <c r="D18">
-        <v>0.84755959999999997</v>
+        <v>0.85011274000000003</v>
       </c>
       <c r="E18">
-        <v>0.87326000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.90131413999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.27870430000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.29256406000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.91062343000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.8703864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.31154494999999999</v>
+        <v>0.39467405999999999</v>
       </c>
       <c r="C19">
-        <v>0.41405436000000001</v>
+        <v>0.4442391</v>
       </c>
       <c r="D19">
-        <v>0.7167713</v>
+        <v>0.47471385999999999</v>
       </c>
       <c r="E19">
-        <v>0.83051585999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.77096869999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.25446266000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.24482292999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.48771485999999997</v>
+      </c>
+      <c r="I19">
+        <v>0.48483542000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.80995846000000005</v>
+        <v>0.59341310000000003</v>
       </c>
       <c r="C20">
-        <v>0.56893579999999999</v>
+        <v>0.80117923000000002</v>
       </c>
       <c r="D20">
-        <v>0.83786419999999995</v>
+        <v>0.87491569999999996</v>
       </c>
       <c r="E20">
-        <v>0.91661789999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.92321472999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.24714747000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.23856598000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.86708070000000004</v>
+      </c>
+      <c r="I20">
+        <v>0.82192770000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.30656033999999999</v>
+        <v>0.33671610000000002</v>
       </c>
       <c r="C21">
-        <v>0.38747817000000001</v>
+        <v>0.27827433000000001</v>
       </c>
       <c r="D21">
-        <v>0.62406459999999997</v>
+        <v>0.30081596999999999</v>
       </c>
       <c r="E21">
-        <v>0.44040045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.22326170000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.34494155999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.35826337000000003</v>
+      </c>
+      <c r="H21">
+        <v>0.3940922</v>
+      </c>
+      <c r="I21">
+        <v>0.41962945000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.34529506999999998</v>
+        <v>0.52434510000000001</v>
       </c>
       <c r="C22">
-        <v>0.53200899999999995</v>
+        <v>0.34775233</v>
       </c>
       <c r="D22">
-        <v>0.75557660000000004</v>
+        <v>0.90329519999999996</v>
       </c>
       <c r="E22">
-        <v>0.86576235000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.93003975999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.52597830000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.50403070000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.98689389999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.96434330000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.3427534999999999E-2</v>
+        <v>0.30667361999999998</v>
       </c>
       <c r="C23">
-        <v>0.26906945999999998</v>
+        <v>5.5379860000000003E-2</v>
       </c>
       <c r="D23">
-        <v>0.13911477</v>
+        <v>6.2676979999999993E-2</v>
       </c>
       <c r="E23">
-        <v>8.1279710000000005E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.5595970000000003E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.36442170000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.37779439999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.51095239999999997</v>
+      </c>
+      <c r="I23">
+        <v>0.50869876000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.48842819999999998</v>
+        <v>0.38900976999999998</v>
       </c>
       <c r="C24">
-        <v>0.48904234000000002</v>
+        <v>0.59808165000000002</v>
       </c>
       <c r="D24">
-        <v>0.90361599999999997</v>
+        <v>0.98837763000000001</v>
       </c>
       <c r="E24">
-        <v>0.97006049999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99424356000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.27678355999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.26921919999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.79562854999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.78555447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>9.2270199999999997E-2</v>
+        <v>0.26509386000000001</v>
       </c>
       <c r="C25">
-        <v>0.27076425999999998</v>
+        <v>0.11586812</v>
       </c>
       <c r="D25">
-        <v>0.46332413</v>
+        <v>0.31363669999999999</v>
       </c>
       <c r="E25">
-        <v>0.48168135000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.51556844000000002</v>
+      </c>
+      <c r="F25">
+        <v>0.25283757000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.25134727000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.86775930000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.85637319999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5.5195639999999997E-2</v>
+        <v>0.30881658000000001</v>
       </c>
       <c r="C26">
-        <v>0.38022178000000001</v>
+        <v>9.1687939999999996E-2</v>
       </c>
       <c r="D26">
-        <v>0.84732264000000002</v>
+        <v>0.90634400000000004</v>
       </c>
       <c r="E26">
-        <v>0.89305159999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.88117160000000005</v>
+      </c>
+      <c r="F26">
+        <v>0.38774118000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.33602956</v>
+      </c>
+      <c r="H26">
+        <v>0.71649843000000002</v>
+      </c>
+      <c r="I26">
+        <v>0.69184080000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.44016522000000002</v>
+        <v>0.61882800000000004</v>
       </c>
       <c r="C27">
-        <v>0.68499993999999997</v>
+        <v>0.814052</v>
       </c>
       <c r="D27">
-        <v>0.76918620000000004</v>
+        <v>0.68742060000000005</v>
       </c>
       <c r="E27">
-        <v>0.72304630000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.60810470000000005</v>
+      </c>
+      <c r="F27">
+        <v>0.26847850000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.28553793</v>
+      </c>
+      <c r="H27">
+        <v>0.78030679999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.73226440000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.95627609999999996</v>
+        <v>0.63083195999999997</v>
       </c>
       <c r="C28">
-        <v>0.68527764000000002</v>
+        <v>0.88426804999999997</v>
       </c>
       <c r="D28">
-        <v>0.90926874000000002</v>
+        <v>0.98613629999999997</v>
       </c>
       <c r="E28">
-        <v>0.96195120000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99302024</v>
+      </c>
+      <c r="F28">
+        <v>0.27273409999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.31000042</v>
+      </c>
+      <c r="H28">
+        <v>0.89066889999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.86021537000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.37568562999999999</v>
+        <v>0.34665963</v>
       </c>
       <c r="C29">
-        <v>0.41346884</v>
+        <v>0.25447127000000003</v>
       </c>
       <c r="D29">
-        <v>0.85636955000000003</v>
+        <v>0.86918664000000001</v>
       </c>
       <c r="E29">
-        <v>0.73850229999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+        <v>0.8472191</v>
+      </c>
+      <c r="F29">
+        <v>0.31062397000000003</v>
+      </c>
+      <c r="G29">
+        <v>0.29671258</v>
+      </c>
+      <c r="H29">
+        <v>0.86280864000000002</v>
+      </c>
+      <c r="I29">
+        <v>0.84809493999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="D30">
-        <v>0.35939860000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.3949281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>0.61840326000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.70046025999999995</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.82013499999999995</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.76636212999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>0.10337515999999999</v>
-      </c>
-      <c r="C31">
-        <v>0.27269297999999997</v>
+      <c r="B31" s="4">
+        <v>0.34491949999999999</v>
+      </c>
+      <c r="C31" s="4">
+        <v>8.6517960000000005E-2</v>
       </c>
       <c r="D31">
-        <v>0.47089915999999998</v>
+        <v>0.76419084999999998</v>
       </c>
       <c r="E31">
-        <v>0.61949929999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.7418479</v>
+      </c>
+      <c r="F31">
+        <v>0.27317718000000002</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.26681936000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.75137880000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.72701733999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.83101930000000002</v>
+        <v>0.55250290000000002</v>
       </c>
       <c r="C32">
-        <v>0.57039819999999997</v>
+        <v>0.81152159999999995</v>
       </c>
       <c r="D32">
-        <v>0.13003524</v>
+        <v>6.7204386000000005E-2</v>
       </c>
       <c r="E32">
-        <v>7.3743710000000004E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.0880477E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.52016779999999996</v>
+      </c>
+      <c r="G32">
+        <v>0.46568638000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.24457868999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.28809847999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.19324362</v>
+        <v>0.3857584</v>
       </c>
       <c r="C33">
-        <v>0.42779993999999999</v>
+        <v>0.28736191999999999</v>
       </c>
       <c r="D33">
-        <v>0.3879822</v>
+        <v>0.64288294000000001</v>
       </c>
       <c r="E33">
-        <v>0.43414760000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.84379183999999996</v>
+      </c>
+      <c r="F33">
+        <v>0.24779087</v>
+      </c>
+      <c r="G33">
+        <v>0.23199230000000001</v>
+      </c>
+      <c r="H33">
+        <v>0.89297110000000002</v>
+      </c>
+      <c r="I33">
+        <v>0.86587040000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3.7233761999999997E-2</v>
+        <v>0.30234149999999999</v>
       </c>
       <c r="C34">
-        <v>0.30259796999999999</v>
+        <v>7.0744429999999997E-2</v>
       </c>
       <c r="D34">
-        <v>0.10769846</v>
+        <v>1.9057902000000002E-2</v>
       </c>
       <c r="E34">
-        <v>4.9218150000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8166603999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>4.5782976000000003E-2</v>
+      </c>
+      <c r="G34">
+        <v>5.4567686999999997E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.75057185000000004</v>
+      </c>
+      <c r="I34">
+        <v>0.72097254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.12363869</v>
+        <v>0.32413315999999998</v>
       </c>
       <c r="C35">
-        <v>0.40198250000000002</v>
+        <v>0.15548496000000001</v>
       </c>
       <c r="D35">
-        <v>0.53015330000000005</v>
+        <v>0.63126766999999995</v>
       </c>
       <c r="E35">
-        <v>0.62728720000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.53030719999999998</v>
+      </c>
+      <c r="F35">
+        <v>0.27441555000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.25244796000000003</v>
+      </c>
+      <c r="H35">
+        <v>0.76395630000000003</v>
+      </c>
+      <c r="I35">
+        <v>0.75323890000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.71087250000000002</v>
+        <v>0.47162983000000003</v>
       </c>
       <c r="C36">
-        <v>0.42191794999999999</v>
+        <v>0.77339380000000002</v>
       </c>
       <c r="D36">
-        <v>9.5322749999999998E-2</v>
+        <v>1.7780523999999999E-2</v>
       </c>
       <c r="E36">
-        <v>5.2682596999999998E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.0325437999999999E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.37988734000000002</v>
+      </c>
+      <c r="G36">
+        <v>0.40995207</v>
+      </c>
+      <c r="H36">
+        <v>0.64078089999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.63990619999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4.2026013000000001E-2</v>
+        <v>0.39545023000000001</v>
       </c>
       <c r="C37">
-        <v>0.27269297999999997</v>
+        <v>0.10702296</v>
       </c>
       <c r="D37">
-        <v>0.47785430000000001</v>
+        <v>0.23669635999999999</v>
       </c>
       <c r="E37">
-        <v>0.44946884999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.30919743</v>
+      </c>
+      <c r="F37">
+        <v>0.27135223000000003</v>
+      </c>
+      <c r="G37">
+        <v>0.28695804000000003</v>
+      </c>
+      <c r="H37">
+        <v>0.91614130000000005</v>
+      </c>
+      <c r="I37">
+        <v>0.88741630000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.19443E-2</v>
+        <v>0.37677217000000002</v>
       </c>
       <c r="C38">
-        <v>0.35110112999999998</v>
+        <v>0.15295406</v>
       </c>
       <c r="D38">
-        <v>0.44245282000000002</v>
+        <v>0.49482991999999998</v>
       </c>
       <c r="E38">
-        <v>0.4560012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.44480302999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.50634617000000004</v>
+      </c>
+      <c r="G38">
+        <v>0.4714834</v>
+      </c>
+      <c r="H38">
+        <v>0.94346649999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.90541419999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.65663559999999999</v>
+        <v>0.52067565999999998</v>
       </c>
       <c r="C39">
-        <v>0.54211503000000005</v>
+        <v>0.64132520000000004</v>
       </c>
       <c r="D39">
-        <v>0.122001834</v>
+        <v>2.9517919E-2</v>
       </c>
       <c r="E39">
-        <v>4.7449940000000003E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3511553000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.54745876999999998</v>
+      </c>
+      <c r="G39">
+        <v>0.49672812</v>
+      </c>
+      <c r="H39">
+        <v>0.50128170000000005</v>
+      </c>
+      <c r="I39">
+        <v>0.47561367999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.27945399999999998</v>
+        <v>0.48029336</v>
       </c>
       <c r="C40">
-        <v>0.5396765</v>
+        <v>0.17538614999999999</v>
       </c>
       <c r="D40">
-        <v>0.69889210000000002</v>
+        <v>0.77763570000000004</v>
       </c>
       <c r="E40">
-        <v>0.73749200000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+        <v>0.63501763</v>
+      </c>
+      <c r="F40">
+        <v>0.33067770000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.34653082000000002</v>
+      </c>
+      <c r="H40">
+        <v>0.61872523999999995</v>
+      </c>
+      <c r="I40">
+        <v>0.62001220000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>41</v>
       </c>
-      <c r="D41">
-        <v>0.68097479999999999</v>
-      </c>
-      <c r="E41">
-        <v>0.75579386999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <v>0.95302480000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.99120306999999996</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.86435280000000003</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.84273577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>8.7402320000000006E-2</v>
+        <v>0.28066461999999998</v>
       </c>
       <c r="C42">
-        <v>0.25329239999999997</v>
+        <v>0.24264993000000001</v>
       </c>
       <c r="D42">
-        <v>9.4866889999999995E-2</v>
+        <v>1.1803633500000001E-2</v>
       </c>
       <c r="E42">
-        <v>3.0390488E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.2182065999999998E-3</v>
+      </c>
+      <c r="F42">
+        <v>0.19907743999999999</v>
+      </c>
+      <c r="G42">
+        <v>0.1949504</v>
+      </c>
+      <c r="H42">
+        <v>0.74207730000000005</v>
+      </c>
+      <c r="I42">
+        <v>0.71717370000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>1.4434265999999999E-2</v>
-      </c>
-      <c r="C43">
-        <v>0.31003459999999999</v>
+      <c r="B43" s="4">
+        <v>0.34063710000000003</v>
+      </c>
+      <c r="C43" s="4">
+        <v>5.7389226000000002E-2</v>
       </c>
       <c r="D43">
-        <v>0.46118882</v>
+        <v>0.27162315999999997</v>
       </c>
       <c r="E43">
-        <v>0.44672114000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.22121821</v>
+      </c>
+      <c r="F43">
+        <v>0.19279647</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.18487653000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.98030572999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.95084250000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.18706132</v>
+        <v>0.32269389999999998</v>
       </c>
       <c r="C44">
-        <v>0.37515505999999998</v>
+        <v>0.22715753</v>
       </c>
       <c r="D44">
-        <v>0.59419679999999997</v>
+        <v>0.29215289999999999</v>
       </c>
       <c r="E44">
-        <v>0.79294425000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.18055837999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.41924027000000003</v>
+      </c>
+      <c r="G44">
+        <v>0.42761107999999998</v>
+      </c>
+      <c r="H44">
+        <v>0.9764794</v>
+      </c>
+      <c r="I44">
+        <v>0.96310359999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.33589859999999999</v>
+        <v>0.33045950000000002</v>
       </c>
       <c r="C45">
-        <v>0.31742749999999997</v>
+        <v>0.42817008000000001</v>
       </c>
       <c r="D45">
-        <v>8.2508973999999999E-2</v>
+        <v>1.5870929999999998E-2</v>
       </c>
       <c r="E45">
-        <v>2.8690396E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.336235E-3</v>
+      </c>
+      <c r="F45">
+        <v>0.46368954000000001</v>
+      </c>
+      <c r="G45">
+        <v>0.48500409999999999</v>
+      </c>
+      <c r="H45">
+        <v>0.51345949999999996</v>
+      </c>
+      <c r="I45">
+        <v>0.47196270000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.12821189999999999</v>
+        <v>0.30030137000000001</v>
       </c>
       <c r="C46">
-        <v>0.28198810000000002</v>
+        <v>0.10017832</v>
       </c>
       <c r="D46">
-        <v>0.23314040999999999</v>
+        <v>0.29520659999999999</v>
       </c>
       <c r="E46">
-        <v>0.20542829000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.31006956000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.21341599999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.22137491000000001</v>
+      </c>
+      <c r="H46">
+        <v>0.86846405000000004</v>
+      </c>
+      <c r="I46">
+        <v>0.85375356999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.5180276000000001E-2</v>
+        <v>0.24716452999999999</v>
       </c>
       <c r="C47">
-        <v>0.24594149000000001</v>
+        <v>3.3767827E-2</v>
       </c>
       <c r="D47">
-        <v>0.23851312999999999</v>
+        <v>4.3809465999999998E-2</v>
       </c>
       <c r="E47">
-        <v>0.11295347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6869301E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.44553965000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.48800100000000002</v>
+      </c>
+      <c r="H47">
+        <v>0.76264244000000003</v>
+      </c>
+      <c r="I47">
+        <v>0.69133659999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>4.5679974999999998E-2</v>
+        <v>0.35064267999999998</v>
       </c>
       <c r="C48">
-        <v>0.29025630000000002</v>
+        <v>0.17170738999999999</v>
       </c>
       <c r="D48">
-        <v>9.4472095000000006E-2</v>
+        <v>2.4818672E-2</v>
       </c>
       <c r="E48">
-        <v>3.9013989999999998E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5919011E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.30796897000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.31351075</v>
+      </c>
+      <c r="H48">
+        <v>0.20555237000000001</v>
+      </c>
+      <c r="I48">
+        <v>0.26168730000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.66885620000000001</v>
+        <v>0.41026395999999998</v>
       </c>
       <c r="C49">
-        <v>0.30887985000000001</v>
+        <v>0.77060925999999996</v>
       </c>
       <c r="D49">
-        <v>8.4621500000000002E-2</v>
+        <v>1.098475E-2</v>
       </c>
       <c r="E49">
-        <v>3.3422314000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.32442545E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.40953640000000002</v>
+      </c>
+      <c r="G49">
+        <v>0.42943153000000001</v>
+      </c>
+      <c r="H49">
+        <v>0.40600544</v>
+      </c>
+      <c r="I49">
+        <v>0.41837447999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.016688E-2</v>
+        <v>0.26509386000000001</v>
       </c>
       <c r="C50">
-        <v>0.39596903</v>
+        <v>3.9358404E-2</v>
       </c>
       <c r="D50">
-        <v>0.42257345000000002</v>
+        <v>0.20135196999999999</v>
       </c>
       <c r="E50">
-        <v>0.32496753</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.15643774999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.21442517999999999</v>
+      </c>
+      <c r="G50">
+        <v>0.23314013</v>
+      </c>
+      <c r="H50">
+        <v>0.70683247000000005</v>
+      </c>
+      <c r="I50">
+        <v>0.6756006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.45674545</v>
+        <v>0.26595950000000002</v>
       </c>
       <c r="C51">
-        <v>0.24594149000000001</v>
+        <v>0.18335731</v>
       </c>
       <c r="D51">
-        <v>0.28258643</v>
+        <v>0.20216943000000001</v>
       </c>
       <c r="E51">
-        <v>0.22198032000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.21760583999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.30346960000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.32264587</v>
+      </c>
+      <c r="H51">
+        <v>0.39209473</v>
+      </c>
+      <c r="I51">
+        <v>0.41156787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>0.66725314000000002</v>
+        <v>0.63876330000000003</v>
       </c>
       <c r="C52">
-        <v>0.68148947000000004</v>
+        <v>0.67141324000000002</v>
       </c>
       <c r="D52">
-        <v>0.83036869999999996</v>
+        <v>0.97896459999999996</v>
       </c>
       <c r="E52">
-        <v>0.94245679999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99233585999999996</v>
+      </c>
+      <c r="F52">
+        <v>0.69289750000000006</v>
+      </c>
+      <c r="G52">
+        <v>0.67047540000000005</v>
+      </c>
+      <c r="H52">
+        <v>0.92617106000000005</v>
+      </c>
+      <c r="I52">
+        <v>0.91454804000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.95238540000000005</v>
+        <v>0.41885240000000001</v>
       </c>
       <c r="C53">
-        <v>0.44089293000000002</v>
+        <v>0.94085649999999998</v>
       </c>
       <c r="D53">
-        <v>0.10665138</v>
+        <v>3.3695704999999999E-2</v>
       </c>
       <c r="E53">
-        <v>5.659906E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.7175629999999999E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.32005850000000002</v>
+      </c>
+      <c r="G53">
+        <v>0.30253667000000001</v>
+      </c>
+      <c r="H53">
+        <v>0.35544120000000001</v>
+      </c>
+      <c r="I53">
+        <v>0.4123655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>2.2245451999999999E-2</v>
+        <v>0.29238054000000002</v>
       </c>
       <c r="C54">
-        <v>0.24077933000000001</v>
+        <v>1.8870308999999998E-2</v>
       </c>
       <c r="D54">
-        <v>0.30155477000000003</v>
+        <v>0.34465635</v>
       </c>
       <c r="E54">
-        <v>0.28415816999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.40329883</v>
+      </c>
+      <c r="F54">
+        <v>0.36829865000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.35203812000000001</v>
+      </c>
+      <c r="H54">
+        <v>0.51214170000000003</v>
+      </c>
+      <c r="I54">
+        <v>0.49898413000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>7.7906005E-2</v>
+        <v>0.50921685000000005</v>
       </c>
       <c r="C55">
-        <v>0.45882260000000002</v>
+        <v>7.9023709999999997E-2</v>
       </c>
       <c r="D55">
-        <v>0.88283129999999999</v>
+        <v>0.95516526999999996</v>
       </c>
       <c r="E55">
-        <v>0.94899743999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.97191050000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.29198962000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.29245493</v>
+      </c>
+      <c r="H55">
+        <v>0.95978450000000004</v>
+      </c>
+      <c r="I55">
+        <v>0.93253070000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.11268887</v>
+        <v>0.34746695</v>
       </c>
       <c r="C56">
-        <v>0.30603590000000003</v>
+        <v>0.16374918999999999</v>
       </c>
       <c r="D56">
-        <v>0.72760009999999997</v>
+        <v>0.74240170000000005</v>
       </c>
       <c r="E56">
-        <v>0.81495340000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.78510809999999998</v>
+      </c>
+      <c r="F56">
+        <v>0.15138367999999999</v>
+      </c>
+      <c r="G56">
+        <v>0.17777722000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.61705714</v>
+      </c>
+      <c r="I56">
+        <v>0.60051363999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0.86948789999999998</v>
+        <v>0.53441446999999997</v>
       </c>
       <c r="C57">
-        <v>0.56481329999999996</v>
+        <v>0.83502644000000004</v>
       </c>
       <c r="D57">
-        <v>0.88994090000000003</v>
+        <v>0.98566717000000004</v>
       </c>
       <c r="E57">
-        <v>0.95275560000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99177599999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.26606693999999997</v>
+      </c>
+      <c r="G57">
+        <v>0.29222468000000001</v>
+      </c>
+      <c r="H57">
+        <v>0.90967387</v>
+      </c>
+      <c r="I57">
+        <v>0.87688449999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0.62996700000000005</v>
+        <v>0.37208095000000002</v>
       </c>
       <c r="C58">
-        <v>0.34648469999999998</v>
+        <v>0.63931537000000005</v>
       </c>
       <c r="D58">
-        <v>0.29440737</v>
+        <v>0.10561361</v>
       </c>
       <c r="E58">
-        <v>0.16238385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.8548199999999994E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.31733567000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.34508549999999999</v>
+      </c>
+      <c r="H58">
+        <v>0.47220123000000003</v>
+      </c>
+      <c r="I58">
+        <v>0.48654969999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>60</v>
       </c>
       <c r="B59">
-        <v>1.0717590000000001E-2</v>
+        <v>0.26559460000000001</v>
       </c>
       <c r="C59">
-        <v>0.25715803999999998</v>
+        <v>1.9443812000000001E-2</v>
       </c>
       <c r="D59">
-        <v>0.26275530000000002</v>
+        <v>0.22690557</v>
       </c>
       <c r="E59">
-        <v>0.24508509000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.22518186000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.16171362</v>
+      </c>
+      <c r="G59">
+        <v>0.18947758000000001</v>
+      </c>
+      <c r="H59">
+        <v>0.90794520000000001</v>
+      </c>
+      <c r="I59">
+        <v>0.858074</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>6.5707710000000003E-2</v>
+        <v>0.51482660000000002</v>
       </c>
       <c r="C60">
-        <v>0.37131008999999998</v>
+        <v>0.2876358</v>
       </c>
       <c r="D60">
-        <v>0.45793125000000001</v>
+        <v>0.26016536000000001</v>
       </c>
       <c r="E60">
-        <v>0.29311480000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.21819720000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.32365414999999997</v>
+      </c>
+      <c r="G60">
+        <v>0.38526922000000002</v>
+      </c>
+      <c r="H60">
+        <v>0.72065780000000002</v>
+      </c>
+      <c r="I60">
+        <v>0.64802700000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0.98582214000000001</v>
+        <v>0.61394375999999995</v>
       </c>
       <c r="C61">
-        <v>0.61671317000000003</v>
+        <v>0.97151200000000004</v>
       </c>
       <c r="D61">
-        <v>0.63034743000000004</v>
+        <v>0.73163307</v>
       </c>
       <c r="E61">
-        <v>0.69232309999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.84027859999999999</v>
+      </c>
+      <c r="F61">
+        <v>0.31759733000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.32429224000000001</v>
+      </c>
+      <c r="H61">
+        <v>0.88150110000000004</v>
+      </c>
+      <c r="I61">
+        <v>0.83681214000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="2">
-        <v>0.52222222222222203</v>
+        <v>0.49166666666666597</v>
       </c>
       <c r="C62" s="2">
-        <v>0.51527777777777695</v>
+        <v>0.47638888888888797</v>
       </c>
       <c r="D62" s="2">
-        <v>0.83222222222222197</v>
+        <v>0.80777777777777704</v>
       </c>
       <c r="E62" s="2">
-        <v>0.82111111111111101</v>
+        <v>0.78888888888888897</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.70416666666666605</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.69722222222222197</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.81555555555555503</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="C64">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="D64">
+        <v>0.7833</v>
+      </c>
+      <c r="E64">
+        <v>0.75</v>
+      </c>
+      <c r="F64">
+        <v>0.6552</v>
+      </c>
+      <c r="G64">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="H64">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="I64">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="D65">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="E65">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="F65">
+        <v>0.1111</v>
+      </c>
+      <c r="G65">
+        <v>0.1111</v>
+      </c>
+      <c r="H65">
+        <v>0.9667</v>
+      </c>
+      <c r="I65">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>0.8</v>
+      </c>
+      <c r="C66">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D66">
+        <v>0.8</v>
+      </c>
+      <c r="E66">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F66">
+        <v>0.9</v>
+      </c>
+      <c r="G66">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H66">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="I66">
+        <v>0.36670000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Monitor_probabilities_AUC.xlsx
+++ b/Monitor_probabilities_AUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07769E8F-54F9-4B11-9C35-4B78AED27575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F49F99-949E-441C-83BD-98BBE9A9C6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.5575    0.8268</t>
+  </si>
+  <si>
+    <t>prob_MRI_filtered(0.05_3_0.8_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_MRI_filtered(0.1_4_1_1_1_100)</t>
+  </si>
+  <si>
+    <t>prob_HIE_filtered(0.1_6_0.8_0_1_100)</t>
+  </si>
+  <si>
+    <t>prob_HIE_filtered(0.01_6_0.9_1_1_500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5662    0.8423</t>
+  </si>
+  <si>
+    <t>0.5508    0.8269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7081    0.9248</t>
+  </si>
+  <si>
+    <t>0.6988    0.9256</t>
   </si>
 </sst>
 </file>
@@ -453,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,9 +492,13 @@
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +526,20 @@
       <c r="I1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -527,8 +567,20 @@
       <c r="I2">
         <v>0.38721614999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.50534239999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.52943530000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.27758408000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.32263737999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -556,8 +608,20 @@
       <c r="I3">
         <v>0.8008478</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.13269935999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.16076170000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.83243140000000004</v>
+      </c>
+      <c r="M3">
+        <v>0.80389319999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -585,8 +649,20 @@
       <c r="I4">
         <v>0.72887829999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>7.8656729999999994E-2</v>
+      </c>
+      <c r="K4">
+        <v>7.0440455999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.59702617000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.60820510000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -614,8 +690,20 @@
       <c r="I5">
         <v>0.85361560000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.27648879999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.30419069999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.9025204</v>
+      </c>
+      <c r="M5">
+        <v>0.86859154999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -643,8 +731,20 @@
       <c r="I6">
         <v>0.84363924999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.47342037999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.4520267</v>
+      </c>
+      <c r="L6">
+        <v>0.90920924999999997</v>
+      </c>
+      <c r="M6">
+        <v>0.86785369999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -672,8 +772,20 @@
       <c r="I7">
         <v>0.83106000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.21956502</v>
+      </c>
+      <c r="K7">
+        <v>0.24338090000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.90487899999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.87853234999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -701,8 +813,20 @@
       <c r="I8">
         <v>0.79904889999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.18752360000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.19636242000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.94172109999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.89791880000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -730,8 +854,20 @@
       <c r="I9">
         <v>0.88984525000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.16133422</v>
+      </c>
+      <c r="K9">
+        <v>0.19979540000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.88429033999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.85219014000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -759,8 +895,20 @@
       <c r="I10">
         <v>0.63277600000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>4.8639250000000002E-2</v>
+      </c>
+      <c r="K10">
+        <v>7.5302110000000005E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.40520450000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.46206712999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -788,8 +936,20 @@
       <c r="I11">
         <v>0.86115920000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.73039580000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.67622983000000003</v>
+      </c>
+      <c r="L11">
+        <v>0.97326190000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.93215979999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -817,8 +977,20 @@
       <c r="I12">
         <v>0.70975699999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.31231079</v>
+      </c>
+      <c r="K12">
+        <v>0.29996517</v>
+      </c>
+      <c r="L12">
+        <v>0.65187340000000005</v>
+      </c>
+      <c r="M12">
+        <v>0.65068709999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -846,8 +1018,20 @@
       <c r="I13">
         <v>0.77247672999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0.32279091999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.32713827000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.87887559999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.83658206000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -875,8 +1059,20 @@
       <c r="I14">
         <v>0.6344284</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1.1972805E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.8775078000000001E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.61437416</v>
+      </c>
+      <c r="M14">
+        <v>0.58913386000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -904,8 +1100,20 @@
       <c r="I15">
         <v>0.94743230000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0.80664659999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.78940343999999996</v>
+      </c>
+      <c r="L15">
+        <v>0.97694139999999996</v>
+      </c>
+      <c r="M15">
+        <v>0.95736569999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -933,8 +1141,20 @@
       <c r="I16">
         <v>0.66923379999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.22296588000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.2704685</v>
+      </c>
+      <c r="L16">
+        <v>0.53203750000000005</v>
+      </c>
+      <c r="M16">
+        <v>0.56179243000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -962,8 +1182,20 @@
       <c r="I17">
         <v>0.8175962</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0.27653217000000002</v>
+      </c>
+      <c r="K17">
+        <v>0.28008050000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.90108580000000005</v>
+      </c>
+      <c r="M17">
+        <v>0.86031150000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -991,8 +1223,20 @@
       <c r="I18">
         <v>0.8703864</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0.2299407</v>
+      </c>
+      <c r="K18">
+        <v>0.22423218</v>
+      </c>
+      <c r="L18">
+        <v>0.88775985999999996</v>
+      </c>
+      <c r="M18">
+        <v>0.84940879999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1020,8 +1264,20 @@
       <c r="I19">
         <v>0.48483542000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0.34610637999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.3663863</v>
+      </c>
+      <c r="L19">
+        <v>0.40221067999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.42557805999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1049,8 +1305,20 @@
       <c r="I20">
         <v>0.82192770000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0.10115405</v>
+      </c>
+      <c r="K20">
+        <v>0.10594697</v>
+      </c>
+      <c r="L20">
+        <v>0.79091984000000004</v>
+      </c>
+      <c r="M20">
+        <v>0.76475590000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1078,8 +1346,20 @@
       <c r="I21">
         <v>0.41962945000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0.21609998</v>
+      </c>
+      <c r="K21">
+        <v>0.25936160000000003</v>
+      </c>
+      <c r="L21">
+        <v>0.40017547999999997</v>
+      </c>
+      <c r="M21">
+        <v>0.42453405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1107,8 +1387,20 @@
       <c r="I22">
         <v>0.96434330000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0.81320239999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.80185070000000003</v>
+      </c>
+      <c r="L22">
+        <v>0.98361116999999998</v>
+      </c>
+      <c r="M22">
+        <v>0.96247159999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1136,8 +1428,20 @@
       <c r="I23">
         <v>0.50869876000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0.29123684999999999</v>
+      </c>
+      <c r="K23">
+        <v>0.30405460000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.47727403000000002</v>
+      </c>
+      <c r="M23">
+        <v>0.45753450000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1165,8 +1469,20 @@
       <c r="I24">
         <v>0.78555447</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0.322716</v>
+      </c>
+      <c r="K24">
+        <v>0.33660637999999998</v>
+      </c>
+      <c r="L24">
+        <v>0.81310020000000005</v>
+      </c>
+      <c r="M24">
+        <v>0.82438356000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1194,8 +1510,20 @@
       <c r="I25">
         <v>0.85637319999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>6.532143E-2</v>
+      </c>
+      <c r="K25">
+        <v>9.0537820000000005E-2</v>
+      </c>
+      <c r="L25">
+        <v>0.89272726000000002</v>
+      </c>
+      <c r="M25">
+        <v>0.87018852999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1223,8 +1551,20 @@
       <c r="I26">
         <v>0.69184080000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0.20061024999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.26530993000000003</v>
+      </c>
+      <c r="L26">
+        <v>0.79515089999999999</v>
+      </c>
+      <c r="M26">
+        <v>0.75534820000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1252,8 +1592,20 @@
       <c r="I27">
         <v>0.73226440000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>0.35353210000000002</v>
+      </c>
+      <c r="K27">
+        <v>0.33350175999999998</v>
+      </c>
+      <c r="L27">
+        <v>0.87245697</v>
+      </c>
+      <c r="M27">
+        <v>0.81239410000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1281,8 +1633,20 @@
       <c r="I28">
         <v>0.86021537000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0.50022650000000002</v>
+      </c>
+      <c r="K28">
+        <v>0.51673069999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.94365745999999995</v>
+      </c>
+      <c r="M28">
+        <v>0.91074390000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1310,8 +1674,20 @@
       <c r="I29">
         <v>0.84809493999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0.54950284999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.55963180000000001</v>
+      </c>
+      <c r="L29">
+        <v>0.89502669999999995</v>
+      </c>
+      <c r="M29">
+        <v>0.87178250000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1327,8 +1703,14 @@
       <c r="I30" s="3">
         <v>0.76636212999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L30" s="3">
+        <v>0.78117186000000005</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.74036944000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1356,8 +1738,20 @@
       <c r="I31">
         <v>0.72701733999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <v>0.31202433000000002</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.32344420000000002</v>
+      </c>
+      <c r="L31">
+        <v>0.64594364000000004</v>
+      </c>
+      <c r="M31">
+        <v>0.65470790000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1385,8 +1779,20 @@
       <c r="I32">
         <v>0.28809847999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0.42044959999999998</v>
+      </c>
+      <c r="K32">
+        <v>0.36089327999999998</v>
+      </c>
+      <c r="L32">
+        <v>0.28623953000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.30291325000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1414,8 +1820,20 @@
       <c r="I33">
         <v>0.86587040000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>0.1126905</v>
+      </c>
+      <c r="K33">
+        <v>0.13871491999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.86192959999999996</v>
+      </c>
+      <c r="M33">
+        <v>0.82935064999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1443,8 +1861,20 @@
       <c r="I34">
         <v>0.72097254</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1.5283306999999999E-2</v>
+      </c>
+      <c r="K34">
+        <v>2.0069195000000001E-2</v>
+      </c>
+      <c r="L34">
+        <v>0.59033690000000005</v>
+      </c>
+      <c r="M34">
+        <v>0.60810830000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1472,8 +1902,20 @@
       <c r="I35">
         <v>0.75323890000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0.33475860000000002</v>
+      </c>
+      <c r="K35">
+        <v>0.33060889999999998</v>
+      </c>
+      <c r="L35">
+        <v>0.78843410000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.76234990000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1501,8 +1943,20 @@
       <c r="I36">
         <v>0.63990619999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0.40201231999999998</v>
+      </c>
+      <c r="K36">
+        <v>0.35759002000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.4589763</v>
+      </c>
+      <c r="M36">
+        <v>0.50877804000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1530,8 +1984,20 @@
       <c r="I37">
         <v>0.88741630000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>9.2153589999999994E-2</v>
+      </c>
+      <c r="K37">
+        <v>0.1046556</v>
+      </c>
+      <c r="L37">
+        <v>0.89842999999999995</v>
+      </c>
+      <c r="M37">
+        <v>0.87076383999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -1559,8 +2025,20 @@
       <c r="I38">
         <v>0.90541419999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0.19966202999999999</v>
+      </c>
+      <c r="K38">
+        <v>0.20950413000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.73744385999999995</v>
+      </c>
+      <c r="M38">
+        <v>0.70708079999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -1588,8 +2066,20 @@
       <c r="I39">
         <v>0.47561367999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.41513004999999997</v>
+      </c>
+      <c r="K39">
+        <v>0.40795759999999998</v>
+      </c>
+      <c r="L39">
+        <v>0.31855842000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.39334506000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1617,8 +2107,20 @@
       <c r="I40">
         <v>0.62001220000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0.42004833000000003</v>
+      </c>
+      <c r="K40">
+        <v>0.44114518000000003</v>
+      </c>
+      <c r="L40">
+        <v>0.64736353999999996</v>
+      </c>
+      <c r="M40">
+        <v>0.65473179999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -1634,8 +2136,14 @@
       <c r="I41" s="3">
         <v>0.84273577</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="3">
+        <v>0.95376693999999995</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.93747382999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1663,8 +2171,20 @@
       <c r="I42">
         <v>0.71717370000000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0.20632697999999999</v>
+      </c>
+      <c r="K42">
+        <v>0.25624222000000002</v>
+      </c>
+      <c r="L42">
+        <v>0.62074969999999996</v>
+      </c>
+      <c r="M42">
+        <v>0.61892015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1692,8 +2212,20 @@
       <c r="I43">
         <v>0.95084250000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <v>2.4590237000000001E-2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>5.7615407E-2</v>
+      </c>
+      <c r="L43">
+        <v>0.98704210000000003</v>
+      </c>
+      <c r="M43">
+        <v>0.96909590000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1721,8 +2253,20 @@
       <c r="I44">
         <v>0.96310359999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>1.5070791E-2</v>
+      </c>
+      <c r="K44">
+        <v>3.380118E-2</v>
+      </c>
+      <c r="L44">
+        <v>0.32859135</v>
+      </c>
+      <c r="M44">
+        <v>0.32264376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -1750,8 +2294,20 @@
       <c r="I45">
         <v>0.47196270000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0.45470956000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.49356526000000001</v>
+      </c>
+      <c r="L45">
+        <v>0.49485314000000002</v>
+      </c>
+      <c r="M45">
+        <v>0.52365510000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -1779,8 +2335,20 @@
       <c r="I46">
         <v>0.85375356999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0.10960331</v>
+      </c>
+      <c r="K46">
+        <v>0.13905238</v>
+      </c>
+      <c r="L46">
+        <v>0.82027819999999996</v>
+      </c>
+      <c r="M46">
+        <v>0.79077790000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1808,8 +2376,20 @@
       <c r="I47">
         <v>0.69133659999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0.41011103999999998</v>
+      </c>
+      <c r="K47">
+        <v>0.35415825000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.64294063999999995</v>
+      </c>
+      <c r="M47">
+        <v>0.65887810000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -1837,8 +2417,20 @@
       <c r="I48">
         <v>0.26168730000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0.30449080000000001</v>
+      </c>
+      <c r="K48">
+        <v>0.36083189999999998</v>
+      </c>
+      <c r="L48">
+        <v>0.36379126000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.40724127999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -1866,8 +2458,20 @@
       <c r="I49">
         <v>0.41837447999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0.47287266999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.44113945999999998</v>
+      </c>
+      <c r="L49">
+        <v>0.46647125</v>
+      </c>
+      <c r="M49">
+        <v>0.45323472999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -1895,8 +2499,20 @@
       <c r="I50">
         <v>0.6756006</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0.14790687999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.21084923</v>
+      </c>
+      <c r="L50">
+        <v>0.35484922000000002</v>
+      </c>
+      <c r="M50">
+        <v>0.3766621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -1924,8 +2540,20 @@
       <c r="I51">
         <v>0.41156787</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0.36837103999999998</v>
+      </c>
+      <c r="K51">
+        <v>0.35684811999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.44837423999999998</v>
+      </c>
+      <c r="M51">
+        <v>0.49429655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -1953,8 +2581,20 @@
       <c r="I52">
         <v>0.91454804000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0.83995986</v>
+      </c>
+      <c r="K52">
+        <v>0.82711524000000003</v>
+      </c>
+      <c r="L52">
+        <v>0.94789690000000004</v>
+      </c>
+      <c r="M52">
+        <v>0.94144890000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -1982,8 +2622,20 @@
       <c r="I53">
         <v>0.4123655</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0.25410294999999999</v>
+      </c>
+      <c r="K53">
+        <v>0.27582094000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.33769329999999997</v>
+      </c>
+      <c r="M53">
+        <v>0.41316605000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -2011,8 +2663,20 @@
       <c r="I54">
         <v>0.49898413000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>0.28358349999999999</v>
+      </c>
+      <c r="K54">
+        <v>0.33541256000000003</v>
+      </c>
+      <c r="L54">
+        <v>0.39170519999999998</v>
+      </c>
+      <c r="M54">
+        <v>0.43585074000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -2040,8 +2704,20 @@
       <c r="I55">
         <v>0.93253070000000005</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>0.14395942</v>
+      </c>
+      <c r="K55">
+        <v>0.14819546</v>
+      </c>
+      <c r="L55">
+        <v>0.97172119999999995</v>
+      </c>
+      <c r="M55">
+        <v>0.95166516000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -2069,8 +2745,20 @@
       <c r="I56">
         <v>0.60051363999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>9.4571649999999993E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.11659106599999999</v>
+      </c>
+      <c r="L56">
+        <v>0.34172304999999997</v>
+      </c>
+      <c r="M56">
+        <v>0.38511250000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -2098,8 +2786,20 @@
       <c r="I57">
         <v>0.87688449999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>0.24777627999999999</v>
+      </c>
+      <c r="K57">
+        <v>0.23291205000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.92580569999999995</v>
+      </c>
+      <c r="M57">
+        <v>0.88793915999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -2127,8 +2827,20 @@
       <c r="I58">
         <v>0.48654969999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>0.4203635</v>
+      </c>
+      <c r="K58">
+        <v>0.42541412000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.50770420000000005</v>
+      </c>
+      <c r="M58">
+        <v>0.49083546</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -2156,8 +2868,20 @@
       <c r="I59">
         <v>0.858074</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0.116794415</v>
+      </c>
+      <c r="K59">
+        <v>0.13974371999999999</v>
+      </c>
+      <c r="L59">
+        <v>0.84567060000000005</v>
+      </c>
+      <c r="M59">
+        <v>0.84826659999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -2185,8 +2909,20 @@
       <c r="I60">
         <v>0.64802700000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>0.26843885000000001</v>
+      </c>
+      <c r="K60">
+        <v>0.29091418000000002</v>
+      </c>
+      <c r="L60">
+        <v>0.74390650000000003</v>
+      </c>
+      <c r="M60">
+        <v>0.67313959999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -2214,8 +2950,20 @@
       <c r="I61">
         <v>0.83681214000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>0.30371702</v>
+      </c>
+      <c r="K61">
+        <v>0.30789116</v>
+      </c>
+      <c r="L61">
+        <v>0.88943833000000005</v>
+      </c>
+      <c r="M61">
+        <v>0.83559399999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
@@ -2243,8 +2991,20 @@
       <c r="I62" s="2">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="2">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.69861111111111096</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.82333333333333303</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
@@ -2272,8 +3032,20 @@
       <c r="I63" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2301,8 +3073,20 @@
       <c r="I64">
         <v>0.66669999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="K64">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="L64">
+        <v>0.7167</v>
+      </c>
+      <c r="M64">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2330,8 +3114,20 @@
       <c r="I65">
         <v>0.9667</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="K65">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="M65">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2358,6 +3154,18 @@
       </c>
       <c r="I66">
         <v>0.36670000000000003</v>
+      </c>
+      <c r="J66">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K66">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L66">
+        <v>0.5</v>
+      </c>
+      <c r="M66">
+        <v>0.4667</v>
       </c>
     </row>
   </sheetData>

--- a/Monitor_probabilities_AUC.xlsx
+++ b/Monitor_probabilities_AUC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F49F99-949E-441C-83BD-98BBE9A9C6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723748B-6DA7-4AF9-8786-6AB43F4C2F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="multiclass" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -127,6 +128,21 @@
   <si>
     <t>0.6988    0.9256</t>
   </si>
+  <si>
+    <t>prob_gray matter (0.01_3_0.7_1_2_100)</t>
+  </si>
+  <si>
+    <t>prob_watershed (0.01_3_0.7_1_2_100)</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>transient_HIE(0.1_6_0.8_0_2_100)</t>
+  </si>
 </sst>
 </file>
 
@@ -190,8 +206,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N62" sqref="A62:N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,9 +513,10 @@
     <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +556,14 @@
       <c r="M1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -579,8 +603,14 @@
       <c r="M2">
         <v>0.32263737999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0.22160669</v>
+      </c>
+      <c r="O2">
+        <v>0.40681996999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -620,8 +650,14 @@
       <c r="M3">
         <v>0.80389319999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0.22160669</v>
+      </c>
+      <c r="O3">
+        <v>0.25568565999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -661,8 +697,14 @@
       <c r="M4">
         <v>0.60820510000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0.22321411999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.33245867000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -702,8 +744,14 @@
       <c r="M5">
         <v>0.86859154999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0.22383869000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.44132422999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -743,8 +791,14 @@
       <c r="M6">
         <v>0.86785369999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0.23101029000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.3671973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -784,8 +838,14 @@
       <c r="M7">
         <v>0.87853234999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0.42358289999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.32337618000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -825,8 +885,14 @@
       <c r="M8">
         <v>0.89791880000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0.42358289999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.30617159999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -866,8 +932,14 @@
       <c r="M9">
         <v>0.85219014000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0.27526274000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.27169943000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -907,8 +979,14 @@
       <c r="M10">
         <v>0.46206712999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0.22160669</v>
+      </c>
+      <c r="O10">
+        <v>0.28071963999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -948,8 +1026,14 @@
       <c r="M11">
         <v>0.93215979999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0.21698277999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.38371304000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -989,8 +1073,14 @@
       <c r="M12">
         <v>0.65068709999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0.22160669</v>
+      </c>
+      <c r="O12">
+        <v>0.29770311999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1030,8 +1120,14 @@
       <c r="M13">
         <v>0.83658206000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0.23434985</v>
+      </c>
+      <c r="O13">
+        <v>0.47431542999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1071,8 +1167,14 @@
       <c r="M14">
         <v>0.58913386000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0.22312169000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.47437906000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1112,8 +1214,14 @@
       <c r="M15">
         <v>0.95736569999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>0.33183565999999998</v>
+      </c>
+      <c r="O15">
+        <v>0.27811720000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1153,8 +1261,14 @@
       <c r="M16">
         <v>0.56179243000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>0.22160669</v>
+      </c>
+      <c r="O16">
+        <v>0.31786019999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1194,8 +1308,14 @@
       <c r="M17">
         <v>0.86031150000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>0.2833968</v>
+      </c>
+      <c r="O17">
+        <v>0.34893610000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1235,8 +1355,14 @@
       <c r="M18">
         <v>0.84940879999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0.22321411999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.48886096000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1276,8 +1402,14 @@
       <c r="M19">
         <v>0.42557805999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>0.22160669</v>
+      </c>
+      <c r="O19">
+        <v>0.39683162999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1317,8 +1449,14 @@
       <c r="M20">
         <v>0.76475590000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>0.34675222999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.55660200000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1358,8 +1496,14 @@
       <c r="M21">
         <v>0.42453405</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>0.22160669</v>
+      </c>
+      <c r="O21">
+        <v>0.33778942000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1399,8 +1543,14 @@
       <c r="M22">
         <v>0.96247159999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>0.34107510000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.47475052000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1440,8 +1590,14 @@
       <c r="M23">
         <v>0.45753450000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>0.22321411999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.33172595999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1481,8 +1637,14 @@
       <c r="M24">
         <v>0.82438356000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>0.22160669</v>
+      </c>
+      <c r="O24">
+        <v>0.36610167999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1522,8 +1684,14 @@
       <c r="M25">
         <v>0.87018852999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>0.27526274000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.27340734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1563,8 +1731,14 @@
       <c r="M26">
         <v>0.75534820000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>0.42019928000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.30411159999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1604,8 +1778,14 @@
       <c r="M27">
         <v>0.81239410000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>0.23101029000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.56763699999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1645,8 +1825,14 @@
       <c r="M28">
         <v>0.91074390000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>0.43725960000000003</v>
+      </c>
+      <c r="O28">
+        <v>0.52099980000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1686,8 +1872,14 @@
       <c r="M29">
         <v>0.87178250000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>0.32070001999999997</v>
+      </c>
+      <c r="O29">
+        <v>0.36324226999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1710,14 +1902,14 @@
         <v>0.74036944000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>0.34491949999999999</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>8.6517960000000005E-2</v>
       </c>
       <c r="D31">
@@ -1729,7 +1921,7 @@
       <c r="F31">
         <v>0.27317718000000002</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <v>0.26681936000000001</v>
       </c>
       <c r="H31">
@@ -1738,10 +1930,10 @@
       <c r="I31">
         <v>0.72701733999999996</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>0.31202433000000002</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31">
         <v>0.32344420000000002</v>
       </c>
       <c r="L31">
@@ -1750,8 +1942,14 @@
       <c r="M31">
         <v>0.65470790000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>0.22160669</v>
+      </c>
+      <c r="O31">
+        <v>0.32995131999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1791,8 +1989,14 @@
       <c r="M32">
         <v>0.30291325000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>0.22321411999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.58058863999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1832,8 +2036,14 @@
       <c r="M33">
         <v>0.82935064999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>0.22160669</v>
+      </c>
+      <c r="O33">
+        <v>0.42363889999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1873,8 +2083,14 @@
       <c r="M34">
         <v>0.60810830000000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>0.22321411999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.32263848000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1914,8 +2130,14 @@
       <c r="M35">
         <v>0.76234990000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>0.27895920000000002</v>
+      </c>
+      <c r="O35">
+        <v>0.33448430000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1955,8 +2177,14 @@
       <c r="M36">
         <v>0.50877804000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>0.22160669</v>
+      </c>
+      <c r="O36">
+        <v>0.47912640000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1996,8 +2224,14 @@
       <c r="M37">
         <v>0.87076383999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>0.27665707</v>
+      </c>
+      <c r="O37">
+        <v>0.38885682999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2037,8 +2271,14 @@
       <c r="M38">
         <v>0.70708079999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>0.41814055999999999</v>
+      </c>
+      <c r="O38">
+        <v>0.35518557000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2078,8 +2318,14 @@
       <c r="M39">
         <v>0.39334506000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>0.22160669</v>
+      </c>
+      <c r="O39">
+        <v>0.60307840000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2119,8 +2365,14 @@
       <c r="M40">
         <v>0.65473179999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>0.22353417</v>
+      </c>
+      <c r="O40">
+        <v>0.52423083999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -2143,7 +2395,7 @@
         <v>0.93747382999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2183,15 +2435,21 @@
       <c r="M42">
         <v>0.61892015</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>0.22321411999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.29129955000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>0.34063710000000003</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>5.7389226000000002E-2</v>
       </c>
       <c r="D43">
@@ -2203,7 +2461,7 @@
       <c r="F43">
         <v>0.19279647</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43">
         <v>0.18487653000000001</v>
       </c>
       <c r="H43">
@@ -2212,10 +2470,10 @@
       <c r="I43">
         <v>0.95084250000000003</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43">
         <v>2.4590237000000001E-2</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43">
         <v>5.7615407E-2</v>
       </c>
       <c r="L43">
@@ -2224,8 +2482,14 @@
       <c r="M43">
         <v>0.96909590000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>0.27665707</v>
+      </c>
+      <c r="O43">
+        <v>0.3380031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -2265,8 +2529,14 @@
       <c r="M44">
         <v>0.32264376</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>0.27665707</v>
+      </c>
+      <c r="O44">
+        <v>0.33752149999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2306,8 +2576,14 @@
       <c r="M45">
         <v>0.52365510000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>0.22160669</v>
+      </c>
+      <c r="O45">
+        <v>0.32493177000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2347,8 +2623,14 @@
       <c r="M46">
         <v>0.79077790000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>0.27665707</v>
+      </c>
+      <c r="O46">
+        <v>0.31378692000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2388,8 +2670,14 @@
       <c r="M47">
         <v>0.65887810000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>0.20833862</v>
+      </c>
+      <c r="O47">
+        <v>0.24892839999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2429,8 +2717,14 @@
       <c r="M48">
         <v>0.40724127999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>0.22160669</v>
+      </c>
+      <c r="O48">
+        <v>0.38674252999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2470,8 +2764,14 @@
       <c r="M49">
         <v>0.45323472999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>0.22160669</v>
+      </c>
+      <c r="O49">
+        <v>0.40681463000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2511,8 +2811,14 @@
       <c r="M50">
         <v>0.3766621</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>0.25814917999999998</v>
+      </c>
+      <c r="O50">
+        <v>0.27340734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2552,8 +2858,14 @@
       <c r="M51">
         <v>0.49429655</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>0.22160669</v>
+      </c>
+      <c r="O51">
+        <v>0.26804289999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -2593,8 +2905,14 @@
       <c r="M52">
         <v>0.94144890000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>0.34122059999999999</v>
+      </c>
+      <c r="O52">
+        <v>0.51781297000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -2634,8 +2952,14 @@
       <c r="M53">
         <v>0.41316605000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>0.22160669</v>
+      </c>
+      <c r="O53">
+        <v>0.36661369999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -2675,8 +2999,14 @@
       <c r="M54">
         <v>0.43585074000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>0.22160669</v>
+      </c>
+      <c r="O54">
+        <v>0.28390907999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -2716,8 +3046,14 @@
       <c r="M55">
         <v>0.95166516000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>0.40410269999999998</v>
+      </c>
+      <c r="O55">
+        <v>0.38112304000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -2757,8 +3093,14 @@
       <c r="M56">
         <v>0.38511250000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>0.22353417</v>
+      </c>
+      <c r="O56">
+        <v>0.3740967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -2798,8 +3140,14 @@
       <c r="M57">
         <v>0.88793915999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>0.3008982</v>
+      </c>
+      <c r="O57">
+        <v>0.53441446999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -2839,8 +3187,14 @@
       <c r="M58">
         <v>0.49083546</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>0.22160669</v>
+      </c>
+      <c r="O58">
+        <v>0.42237520000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -2880,8 +3234,14 @@
       <c r="M59">
         <v>0.84826659999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>0.27526274000000001</v>
+      </c>
+      <c r="O59">
+        <v>0.27169943000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -2921,8 +3281,14 @@
       <c r="M60">
         <v>0.67313959999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>0.22160669</v>
+      </c>
+      <c r="O60">
+        <v>0.52256480000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -2962,8 +3328,14 @@
       <c r="M61">
         <v>0.83559399999999995</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>0.22160669</v>
+      </c>
+      <c r="O61">
+        <v>0.56462866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
@@ -3003,49 +3375,55 @@
       <c r="M62" s="2">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="N62" s="2">
+        <v>0.56410256410256399</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0.40602582496413198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3171,4 +3549,1246 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F887642E-FC8A-4B2D-B1EC-D676404D667D}">
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.73822016460905304</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.94797509999999996</v>
+      </c>
+      <c r="G2">
+        <v>4.7799179999999997E-2</v>
+      </c>
+      <c r="H2">
+        <v>4.2257500000000003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.31206574999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.67777980000000004</v>
+      </c>
+      <c r="H3">
+        <v>1.015449E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.98150163999999995</v>
+      </c>
+      <c r="G4">
+        <v>1.338051E-2</v>
+      </c>
+      <c r="H4">
+        <v>5.1178700000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.9676240000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.97217379999999998</v>
+      </c>
+      <c r="H5">
+        <v>8.1499499999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.18532418000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.66364489999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.15103093000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5.7427400000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.92131925000000003</v>
+      </c>
+      <c r="H7">
+        <v>2.1253399999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.37167139999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.54517720000000003</v>
+      </c>
+      <c r="H8">
+        <v>8.3151390000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.61593920000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.34847193999999998</v>
+      </c>
+      <c r="H9">
+        <v>3.5588849999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.36717808000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.62524027000000004</v>
+      </c>
+      <c r="H10">
+        <v>7.5816299999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.4047019</v>
+      </c>
+      <c r="G11">
+        <v>0.44863029999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.14666779999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4.265679E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.92608749999999995</v>
+      </c>
+      <c r="H12">
+        <v>3.1255669999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.29399425000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.18736652000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.51863919999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.94292180000000003</v>
+      </c>
+      <c r="G14">
+        <v>3.5762839999999997E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.1315310000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.24822127999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.54425109999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.20752764000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.96307569999999998</v>
+      </c>
+      <c r="G16">
+        <v>2.1362840000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.55614E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.20561613000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.76034844000000001</v>
+      </c>
+      <c r="H17">
+        <v>3.4035410000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>6.7096180000000005E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.90539259999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.7511239999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.60568862999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.29381984</v>
+      </c>
+      <c r="H19">
+        <v>0.10049155</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.22969534</v>
+      </c>
+      <c r="G20">
+        <v>0.35631528000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.41398937000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.72896284</v>
+      </c>
+      <c r="G21">
+        <v>0.23985463000000001</v>
+      </c>
+      <c r="H21">
+        <v>3.1182499999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>6.5861520000000007E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.86738663999999999</v>
+      </c>
+      <c r="H22">
+        <v>6.6751820000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.93508195999999999</v>
+      </c>
+      <c r="G23">
+        <v>5.390172E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.101632E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>9.3808599999999995E-3</v>
+      </c>
+      <c r="G24">
+        <v>0.97455263000000003</v>
+      </c>
+      <c r="H24">
+        <v>1.6066529999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.75048389999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.20840988999999999</v>
+      </c>
+      <c r="H25">
+        <v>4.1106219999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>6.3166390000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.90586929999999999</v>
+      </c>
+      <c r="H26">
+        <v>3.09643E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.23071204000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.50241524000000004</v>
+      </c>
+      <c r="H27">
+        <v>0.26687275999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>6.9626999999999996E-3</v>
+      </c>
+      <c r="G28">
+        <v>0.96297790000000005</v>
+      </c>
+      <c r="H28">
+        <v>3.0059430000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.20812953000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.68744886000000005</v>
+      </c>
+      <c r="H29">
+        <v>0.10442158999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.49826693999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.47082457</v>
+      </c>
+      <c r="H30">
+        <v>3.0908540000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.14816832999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.84331449999999997</v>
+      </c>
+      <c r="H31">
+        <v>8.5172200000000007E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.9553739</v>
+      </c>
+      <c r="G32">
+        <v>3.2214930000000003E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.2411159999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.27290350000000002</v>
+      </c>
+      <c r="G33">
+        <v>0.71690893</v>
+      </c>
+      <c r="H33">
+        <v>1.018756E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.97353009999999995</v>
+      </c>
+      <c r="G34">
+        <v>2.105425E-2</v>
+      </c>
+      <c r="H34">
+        <v>5.4156100000000004E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.34079775000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.62261619999999995</v>
+      </c>
+      <c r="H35">
+        <v>3.658608E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.98283790000000004</v>
+      </c>
+      <c r="G36">
+        <v>1.2540030000000001E-2</v>
+      </c>
+      <c r="H36">
+        <v>4.6221099999999996E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.77906006999999999</v>
+      </c>
+      <c r="G37">
+        <v>7.1759799999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.14918011</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.38645889999999999</v>
+      </c>
+      <c r="G38">
+        <v>5.3191500000000003E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.5603496</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.96604109999999999</v>
+      </c>
+      <c r="G39">
+        <v>2.3468119999999999E-2</v>
+      </c>
+      <c r="H39">
+        <v>1.049077E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.56077670000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.26936125999999999</v>
+      </c>
+      <c r="H40">
+        <v>0.16986202</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>6.5322710000000006E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.74665636000000002</v>
+      </c>
+      <c r="H41">
+        <v>0.18802095999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.95939430000000003</v>
+      </c>
+      <c r="G42">
+        <v>3.8184490000000001E-2</v>
+      </c>
+      <c r="H42">
+        <v>2.4212499999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.73404429999999998</v>
+      </c>
+      <c r="G43">
+        <v>0.17928806999999999</v>
+      </c>
+      <c r="H43">
+        <v>8.6667549999999996E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.81322439999999996</v>
+      </c>
+      <c r="G44">
+        <v>0.12018648</v>
+      </c>
+      <c r="H44">
+        <v>6.6589159999999994E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.96056615999999995</v>
+      </c>
+      <c r="G45">
+        <v>3.5486999999999998E-2</v>
+      </c>
+      <c r="H45">
+        <v>3.94686E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.7393594</v>
+      </c>
+      <c r="G46">
+        <v>0.18858352</v>
+      </c>
+      <c r="H46">
+        <v>7.2057140000000006E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.96442519999999998</v>
+      </c>
+      <c r="G47">
+        <v>3.29524E-2</v>
+      </c>
+      <c r="H47">
+        <v>2.6223599999999998E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.97853356999999996</v>
+      </c>
+      <c r="G48">
+        <v>8.2135999999999997E-3</v>
+      </c>
+      <c r="H48">
+        <v>1.325285E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.98558009999999996</v>
+      </c>
+      <c r="G49">
+        <v>1.062919E-2</v>
+      </c>
+      <c r="H49">
+        <v>3.79079E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.70466700000000004</v>
+      </c>
+      <c r="G50">
+        <v>0.27930906</v>
+      </c>
+      <c r="H50">
+        <v>1.6024E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.96163770000000004</v>
+      </c>
+      <c r="G51">
+        <v>3.0174320000000001E-2</v>
+      </c>
+      <c r="H51">
+        <v>8.1880000000000008E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2.0002599999999999E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.89470744000000002</v>
+      </c>
+      <c r="H52">
+        <v>8.528993E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.95254559999999999</v>
+      </c>
+      <c r="G53">
+        <v>3.9159520000000003E-2</v>
+      </c>
+      <c r="H53">
+        <v>8.2949400000000006E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.64359516000000005</v>
+      </c>
+      <c r="G54">
+        <v>0.34655649999999999</v>
+      </c>
+      <c r="H54">
+        <v>9.8482900000000009E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1.939132E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.87173520000000004</v>
+      </c>
+      <c r="H55">
+        <v>0.10887347</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.12986945999999999</v>
+      </c>
+      <c r="G56">
+        <v>0.73500586000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.13512467</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1.0943080000000001E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.97254750000000001</v>
+      </c>
+      <c r="H57">
+        <v>1.6509469999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.92303769999999996</v>
+      </c>
+      <c r="G58">
+        <v>6.9230379999999994E-2</v>
+      </c>
+      <c r="H58">
+        <v>7.73188E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.84209800000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.13392006000000001</v>
+      </c>
+      <c r="H59">
+        <v>2.398192E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.75464589999999998</v>
+      </c>
+      <c r="G60">
+        <v>0.15344310999999999</v>
+      </c>
+      <c r="H60">
+        <v>9.1911030000000005E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.33372536000000003</v>
+      </c>
+      <c r="G61">
+        <v>0.64114519999999997</v>
+      </c>
+      <c r="H61">
+        <v>2.512936E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Monitor_probabilities_AUC.xlsx
+++ b/Monitor_probabilities_AUC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723748B-6DA7-4AF9-8786-6AB43F4C2F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1BA0DE-0EBD-488F-A3C8-37004511565B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -138,10 +138,130 @@
     <t>model</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>transient_HIE(0.1_6_0.8_0_2_100)</t>
+  </si>
+  <si>
+    <t>low CI</t>
+  </si>
+  <si>
+    <t>high CI</t>
+  </si>
+  <si>
+    <t>prob_MRI_6h (0.01_3_0.7_1_2_100)</t>
+  </si>
+  <si>
+    <t>prob_MRI_6h (0.05_3_1_0_2_500)</t>
+  </si>
+  <si>
+    <t>prob HIE_6h (0.1_6_0.7_0_1_100)</t>
+  </si>
+  <si>
+    <t>prob HIE_6h (0.05_3_1_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_MRI_NIRS_6h(0.05_3_0.8_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_MRI_NIRS_6h(0.1_4_1_1_1_100)</t>
+  </si>
+  <si>
+    <t>prob_HIE_NIRS_6h(0.1_6_0.8_0_1_100)</t>
+  </si>
+  <si>
+    <t>prob_HIE_NIRS_6h(0.01_6_0.9_1_1_500)</t>
+  </si>
+  <si>
+    <t>prob_MRI_filtered_6h(0.05_3_0.8_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_HIE_filtered_6h(0.01_6_0.9_1_1_500)</t>
+  </si>
+  <si>
+    <t>prob_HIE_filtered_6h(0.1_6_0.8_0_1_100)</t>
+  </si>
+  <si>
+    <t>prob_MRI_filtered_6h(0.1_4_1_1_1_100)</t>
+  </si>
+  <si>
+    <t>0.2223    0.5651</t>
+  </si>
+  <si>
+    <t>0.1978    0.5409</t>
+  </si>
+  <si>
+    <t>0.2774    0.6229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1789    0.5392</t>
+  </si>
+  <si>
+    <t>0.3251    0.6667</t>
+  </si>
+  <si>
+    <t>0.2966    0.6463</t>
+  </si>
+  <si>
+    <t>0.5997    0.8626</t>
+  </si>
+  <si>
+    <t>0.6385    0.8820</t>
+  </si>
+  <si>
+    <t>0.4994    0.7823</t>
+  </si>
+  <si>
+    <t>0.4376    0.7337</t>
+  </si>
+  <si>
+    <t>0.6465    0.8893</t>
+  </si>
+  <si>
+    <t>0.6577    0.8924</t>
+  </si>
+  <si>
+    <t>nirs_HIE(0.05_6_1_0_1_500)</t>
+  </si>
+  <si>
+    <t>filtered_HIE(0.05_6_1_0_1_500)</t>
+  </si>
+  <si>
+    <t>transient_HIE_6h(0.1_6_0.8_0_2_100)</t>
+  </si>
+  <si>
+    <t>nirs_HIE_6h(0.05_6_1_0_1_500)</t>
+  </si>
+  <si>
+    <t>filtered_HIE_6h(0.05_6_1_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_gray matter_nirs(0.05_3_0.8_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_gray matter_filtered(0.05_3_0.8_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_watershed_nirs(0.05_3_0.8_0_1_500)</t>
+  </si>
+  <si>
+    <t>prob_watershed_filtered(0.05_3_0.8_0_1_500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2500    0.5711</t>
+  </si>
+  <si>
+    <t>0.5305    0.8057</t>
+  </si>
+  <si>
+    <t>0.5795    0.8525</t>
+  </si>
+  <si>
+    <t>0.1991    0.8909</t>
+  </si>
+  <si>
+    <t>0.7356    0.9887</t>
+  </si>
+  <si>
+    <t>0.7500    1.0000</t>
   </si>
 </sst>
 </file>
@@ -493,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N62" sqref="A62:N62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +634,25 @@
     <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.140625" customWidth="1"/>
+    <col min="18" max="18" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.140625" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +698,56 @@
       <c r="O1" t="s">
         <v>31</v>
       </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -609,8 +793,56 @@
       <c r="O2">
         <v>0.40681996999999998</v>
       </c>
+      <c r="P2">
+        <v>5.1033887999999999E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.31760606000000002</v>
+      </c>
+      <c r="R2">
+        <v>1.0758357E-2</v>
+      </c>
+      <c r="S2">
+        <v>0.53082573</v>
+      </c>
+      <c r="T2">
+        <v>0.51407062999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.68828690000000003</v>
+      </c>
+      <c r="V2">
+        <v>0.85644907000000003</v>
+      </c>
+      <c r="W2">
+        <v>0.91950909999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.3041026</v>
+      </c>
+      <c r="Y2">
+        <v>0.31813925999999998</v>
+      </c>
+      <c r="Z2">
+        <v>0.65418279999999995</v>
+      </c>
+      <c r="AA2">
+        <v>0.67436359999999995</v>
+      </c>
+      <c r="AB2">
+        <v>0.17967689000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.26026863</v>
+      </c>
+      <c r="AD2">
+        <v>0.22326683999999999</v>
+      </c>
+      <c r="AE2">
+        <v>0.18581025000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -656,8 +888,56 @@
       <c r="O3">
         <v>0.25568565999999998</v>
       </c>
+      <c r="P3">
+        <v>1.4045339E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.14370157</v>
+      </c>
+      <c r="R3">
+        <v>1.0991422000000001E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.115425706</v>
+      </c>
+      <c r="T3">
+        <v>0.38201326000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.26292392999999997</v>
+      </c>
+      <c r="V3">
+        <v>5.7484189999999998E-2</v>
+      </c>
+      <c r="W3">
+        <v>8.7163809999999994E-2</v>
+      </c>
+      <c r="X3">
+        <v>0.93490076</v>
+      </c>
+      <c r="Y3">
+        <v>0.77556586000000005</v>
+      </c>
+      <c r="Z3">
+        <v>0.35479596000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.41349607999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.47613107999999998</v>
+      </c>
+      <c r="AC3">
+        <v>0.44726092000000001</v>
+      </c>
+      <c r="AD3">
+        <v>0.62580499999999994</v>
+      </c>
+      <c r="AE3">
+        <v>0.60962737</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -703,8 +983,56 @@
       <c r="O4">
         <v>0.33245867000000001</v>
       </c>
+      <c r="P4">
+        <v>2.0946349999999999E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.12408081999999999</v>
+      </c>
+      <c r="R4">
+        <v>6.3723162999999999E-3</v>
+      </c>
+      <c r="S4">
+        <v>6.0153989999999997E-2</v>
+      </c>
+      <c r="T4">
+        <v>0.3035677</v>
+      </c>
+      <c r="U4">
+        <v>0.26280025000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.78210190000000002</v>
+      </c>
+      <c r="W4">
+        <v>0.57633049999999997</v>
+      </c>
+      <c r="X4">
+        <v>0.14431511999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.26166916000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.8973352</v>
+      </c>
+      <c r="AA4">
+        <v>0.83563113</v>
+      </c>
+      <c r="AB4">
+        <v>0.24250779</v>
+      </c>
+      <c r="AC4">
+        <v>0.32480502</v>
+      </c>
+      <c r="AD4">
+        <v>0.59319233999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.61140835000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -750,8 +1078,56 @@
       <c r="O5">
         <v>0.44132422999999998</v>
       </c>
+      <c r="P5">
+        <v>2.6885176E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.22182365000000001</v>
+      </c>
+      <c r="R5">
+        <v>1.1061494999999999E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.24451144</v>
+      </c>
+      <c r="T5">
+        <v>0.336675</v>
+      </c>
+      <c r="U5">
+        <v>0.21088156</v>
+      </c>
+      <c r="V5">
+        <v>0.88613224000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.93818060000000003</v>
+      </c>
+      <c r="X5">
+        <v>0.245973</v>
+      </c>
+      <c r="Y5">
+        <v>0.22565797000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.78270704000000002</v>
+      </c>
+      <c r="AA5">
+        <v>0.62093449999999994</v>
+      </c>
+      <c r="AB5">
+        <v>0.51395950000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.50246159999999995</v>
+      </c>
+      <c r="AD5">
+        <v>0.97661710000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.93902350000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -797,8 +1173,56 @@
       <c r="O6">
         <v>0.3671973</v>
       </c>
+      <c r="P6">
+        <v>0.12214728399999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.35456442999999999</v>
+      </c>
+      <c r="R6">
+        <v>6.0012045999999999E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.40567455000000002</v>
+      </c>
+      <c r="T6">
+        <v>0.29141787000000002</v>
+      </c>
+      <c r="U6">
+        <v>6.5073500000000006E-2</v>
+      </c>
+      <c r="V6">
+        <v>8.0644649999999998E-2</v>
+      </c>
+      <c r="W6">
+        <v>0.15957609</v>
+      </c>
+      <c r="X6">
+        <v>0.14230333000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.15496032000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.55669610000000003</v>
+      </c>
+      <c r="AA6">
+        <v>0.45382935000000002</v>
+      </c>
+      <c r="AB6">
+        <v>5.7516918E-2</v>
+      </c>
+      <c r="AC6">
+        <v>0.14594525</v>
+      </c>
+      <c r="AD6">
+        <v>0.90017199999999997</v>
+      </c>
+      <c r="AE6">
+        <v>0.88477826000000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -844,8 +1268,56 @@
       <c r="O7">
         <v>0.32337618000000001</v>
       </c>
+      <c r="P7">
+        <v>2.1498990999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.14758445000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.10271364500000001</v>
+      </c>
+      <c r="S7">
+        <v>0.20989368999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.48371384000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.63085000000000002</v>
+      </c>
+      <c r="V7">
+        <v>0.90110159999999995</v>
+      </c>
+      <c r="W7">
+        <v>0.92683289999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.22396405</v>
+      </c>
+      <c r="Y7">
+        <v>0.3084752</v>
+      </c>
+      <c r="Z7">
+        <v>0.46438253000000002</v>
+      </c>
+      <c r="AA7">
+        <v>0.46407217000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.43157371999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.37084679999999998</v>
+      </c>
+      <c r="AD7">
+        <v>0.47749659999999999</v>
+      </c>
+      <c r="AE7">
+        <v>0.47054747000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -891,8 +1363,56 @@
       <c r="O8">
         <v>0.30617159999999999</v>
       </c>
+      <c r="P8">
+        <v>3.5798993000000001E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.20607755999999999</v>
+      </c>
+      <c r="R8">
+        <v>1.3520651999999999E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.15849671000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.336675</v>
+      </c>
+      <c r="U8">
+        <v>9.4479170000000001E-2</v>
+      </c>
+      <c r="V8">
+        <v>0.87118200000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.92314017000000004</v>
+      </c>
+      <c r="X8">
+        <v>5.7182014000000003E-2</v>
+      </c>
+      <c r="Y8">
+        <v>0.12579904</v>
+      </c>
+      <c r="Z8">
+        <v>0.68383229999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.68989586999999997</v>
+      </c>
+      <c r="AB8">
+        <v>0.16487634000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.12691103000000001</v>
+      </c>
+      <c r="AD8">
+        <v>0.87794315999999994</v>
+      </c>
+      <c r="AE8">
+        <v>0.85706530000000003</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -938,8 +1458,56 @@
       <c r="O9">
         <v>0.27169943000000002</v>
       </c>
+      <c r="P9">
+        <v>7.4970103999999996E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.19309229999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.10339528000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.1099009</v>
+      </c>
+      <c r="T9">
+        <v>0.37291327000000002</v>
+      </c>
+      <c r="U9">
+        <v>0.21262682999999999</v>
+      </c>
+      <c r="V9">
+        <v>0.12621911</v>
+      </c>
+      <c r="W9">
+        <v>5.2767559999999998E-2</v>
+      </c>
+      <c r="X9">
+        <v>0.62671339999999998</v>
+      </c>
+      <c r="Y9">
+        <v>0.63864695999999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.82057849999999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.79650949999999998</v>
+      </c>
+      <c r="AB9">
+        <v>0.45293748</v>
+      </c>
+      <c r="AC9">
+        <v>0.45659243999999999</v>
+      </c>
+      <c r="AD9">
+        <v>0.41252017000000002</v>
+      </c>
+      <c r="AE9">
+        <v>0.44758534</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -985,8 +1553,56 @@
       <c r="O10">
         <v>0.28071963999999999</v>
       </c>
+      <c r="P10">
+        <v>7.1205623000000001E-3</v>
+      </c>
+      <c r="Q10">
+        <v>0.11156544</v>
+      </c>
+      <c r="R10">
+        <v>7.8589459999999997E-4</v>
+      </c>
+      <c r="S10">
+        <v>7.6141340000000002E-2</v>
+      </c>
+      <c r="T10">
+        <v>0.27356067000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.12426719</v>
+      </c>
+      <c r="V10">
+        <v>0.8393273</v>
+      </c>
+      <c r="W10">
+        <v>0.73533879999999996</v>
+      </c>
+      <c r="X10">
+        <v>0.17965645</v>
+      </c>
+      <c r="Y10">
+        <v>0.2299312</v>
+      </c>
+      <c r="Z10">
+        <v>0.48834391999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.61842470000000005</v>
+      </c>
+      <c r="AB10">
+        <v>4.3303102000000003E-2</v>
+      </c>
+      <c r="AC10">
+        <v>0.1437698</v>
+      </c>
+      <c r="AD10">
+        <v>0.15436421</v>
+      </c>
+      <c r="AE10">
+        <v>0.20495601999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1032,8 +1648,56 @@
       <c r="O11">
         <v>0.38371304000000001</v>
       </c>
+      <c r="P11">
+        <v>0.566496</v>
+      </c>
+      <c r="Q11">
+        <v>0.602213</v>
+      </c>
+      <c r="R11">
+        <v>0.74494857000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.56539209999999995</v>
+      </c>
+      <c r="T11">
+        <v>0.29255497000000003</v>
+      </c>
+      <c r="U11">
+        <v>2.0668510000000001E-2</v>
+      </c>
+      <c r="V11">
+        <v>0.89258590000000004</v>
+      </c>
+      <c r="W11">
+        <v>0.94265896000000005</v>
+      </c>
+      <c r="X11">
+        <v>1.1525472E-2</v>
+      </c>
+      <c r="Y11">
+        <v>4.2111761999999997E-2</v>
+      </c>
+      <c r="Z11">
+        <v>0.50480020000000003</v>
+      </c>
+      <c r="AA11">
+        <v>0.48352121999999997</v>
+      </c>
+      <c r="AB11">
+        <v>0.11487606</v>
+      </c>
+      <c r="AC11">
+        <v>0.19423106000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.92029654999999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.88525770000000004</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1079,8 +1743,56 @@
       <c r="O12">
         <v>0.29770311999999999</v>
       </c>
+      <c r="P12">
+        <v>1.1016863999999999E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.25082557999999999</v>
+      </c>
+      <c r="R12">
+        <v>1.6820867999999999E-2</v>
+      </c>
+      <c r="S12">
+        <v>0.2851706</v>
+      </c>
+      <c r="T12">
+        <v>0.25428683000000002</v>
+      </c>
+      <c r="U12">
+        <v>1.4617460000000001E-2</v>
+      </c>
+      <c r="V12">
+        <v>0.87157249999999997</v>
+      </c>
+      <c r="W12">
+        <v>0.80038629999999999</v>
+      </c>
+      <c r="X12">
+        <v>8.4445450000000005E-2</v>
+      </c>
+      <c r="Y12">
+        <v>0.17007454999999999</v>
+      </c>
+      <c r="Z12">
+        <v>0.73499875999999997</v>
+      </c>
+      <c r="AA12">
+        <v>0.76927389999999995</v>
+      </c>
+      <c r="AB12">
+        <v>0.13178597</v>
+      </c>
+      <c r="AC12">
+        <v>0.22766710000000001</v>
+      </c>
+      <c r="AD12">
+        <v>0.95831500000000003</v>
+      </c>
+      <c r="AE12">
+        <v>0.92857469999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1126,8 +1838,56 @@
       <c r="O13">
         <v>0.47431542999999998</v>
       </c>
+      <c r="P13">
+        <v>7.9501100000000005E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.24378008000000001</v>
+      </c>
+      <c r="R13">
+        <v>6.1470415E-2</v>
+      </c>
+      <c r="S13">
+        <v>0.18780263999999999</v>
+      </c>
+      <c r="T13">
+        <v>0.36163506000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.12102678</v>
+      </c>
+      <c r="V13">
+        <v>0.94572805999999998</v>
+      </c>
+      <c r="W13">
+        <v>0.97172517000000003</v>
+      </c>
+      <c r="X13">
+        <v>0.24435941999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.19366829999999999</v>
+      </c>
+      <c r="Z13">
+        <v>0.33232653000000001</v>
+      </c>
+      <c r="AA13">
+        <v>0.49961477999999998</v>
+      </c>
+      <c r="AB13">
+        <v>0.73315536999999997</v>
+      </c>
+      <c r="AC13">
+        <v>0.53096860000000001</v>
+      </c>
+      <c r="AD13">
+        <v>0.98213302999999996</v>
+      </c>
+      <c r="AE13">
+        <v>0.92889666999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1173,8 +1933,56 @@
       <c r="O14">
         <v>0.47437906000000002</v>
       </c>
+      <c r="P14">
+        <v>1.2847081E-2</v>
+      </c>
+      <c r="Q14">
+        <v>7.3002819999999996E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.2334958000000001E-4</v>
+      </c>
+      <c r="S14">
+        <v>1.3087908000000001E-2</v>
+      </c>
+      <c r="T14">
+        <v>0.48695630000000001</v>
+      </c>
+      <c r="U14">
+        <v>0.88336545</v>
+      </c>
+      <c r="V14">
+        <v>0.67912150000000004</v>
+      </c>
+      <c r="W14">
+        <v>0.80379385000000003</v>
+      </c>
+      <c r="X14">
+        <v>7.7837765000000003E-2</v>
+      </c>
+      <c r="Y14">
+        <v>0.17704195</v>
+      </c>
+      <c r="Z14">
+        <v>0.80361605000000003</v>
+      </c>
+      <c r="AA14">
+        <v>0.73738610000000004</v>
+      </c>
+      <c r="AB14">
+        <v>3.0918813999999999E-2</v>
+      </c>
+      <c r="AC14">
+        <v>0.11914532</v>
+      </c>
+      <c r="AD14">
+        <v>0.10474425599999999</v>
+      </c>
+      <c r="AE14">
+        <v>0.16641454</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1220,8 +2028,56 @@
       <c r="O15">
         <v>0.27811720000000001</v>
       </c>
+      <c r="P15">
+        <v>0.19698889999999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.29245895</v>
+      </c>
+      <c r="R15">
+        <v>0.69425327000000003</v>
+      </c>
+      <c r="S15">
+        <v>0.76698189999999999</v>
+      </c>
+      <c r="T15">
+        <v>0.5652722</v>
+      </c>
+      <c r="U15">
+        <v>0.78914260000000003</v>
+      </c>
+      <c r="V15">
+        <v>0.86499380000000003</v>
+      </c>
+      <c r="W15">
+        <v>0.86241347000000002</v>
+      </c>
+      <c r="X15">
+        <v>0.21767900000000001</v>
+      </c>
+      <c r="Y15">
+        <v>0.20287251000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.73898529999999996</v>
+      </c>
+      <c r="AA15">
+        <v>0.76919059999999995</v>
+      </c>
+      <c r="AB15">
+        <v>0.66608213999999999</v>
+      </c>
+      <c r="AC15">
+        <v>0.64998060000000002</v>
+      </c>
+      <c r="AD15">
+        <v>0.92043779999999997</v>
+      </c>
+      <c r="AE15">
+        <v>0.88690100000000005</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1267,8 +2123,56 @@
       <c r="O16">
         <v>0.31786019999999998</v>
       </c>
+      <c r="P16">
+        <v>1.0660615E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.26654624999999998</v>
+      </c>
+      <c r="R16">
+        <v>2.5502442999999998E-3</v>
+      </c>
+      <c r="S16">
+        <v>0.22199720000000001</v>
+      </c>
+      <c r="T16">
+        <v>0.26539560000000001</v>
+      </c>
+      <c r="U16">
+        <v>2.4033140000000001E-2</v>
+      </c>
+      <c r="V16">
+        <v>0.4016923</v>
+      </c>
+      <c r="W16">
+        <v>0.54927753999999995</v>
+      </c>
+      <c r="X16">
+        <v>0.18459229999999999</v>
+      </c>
+      <c r="Y16">
+        <v>0.23506460000000001</v>
+      </c>
+      <c r="Z16">
+        <v>0.67402910000000005</v>
+      </c>
+      <c r="AA16">
+        <v>0.70477676</v>
+      </c>
+      <c r="AB16">
+        <v>2.3077062999999998E-2</v>
+      </c>
+      <c r="AC16">
+        <v>9.5646540000000002E-2</v>
+      </c>
+      <c r="AD16">
+        <v>0.19063559999999999</v>
+      </c>
+      <c r="AE16">
+        <v>0.36966060000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1314,8 +2218,56 @@
       <c r="O17">
         <v>0.34893610000000003</v>
       </c>
+      <c r="P17">
+        <v>2.1305866999999999E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0.19219051000000001</v>
+      </c>
+      <c r="R17">
+        <v>4.4320628000000001E-2</v>
+      </c>
+      <c r="S17">
+        <v>0.20675378999999999</v>
+      </c>
+      <c r="T17">
+        <v>0.56164753000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.44488699999999998</v>
+      </c>
+      <c r="V17">
+        <v>0.93753976000000006</v>
+      </c>
+      <c r="W17">
+        <v>0.95511263999999996</v>
+      </c>
+      <c r="X17">
+        <v>0.15339613999999999</v>
+      </c>
+      <c r="Y17">
+        <v>0.33355210000000002</v>
+      </c>
+      <c r="Z17">
+        <v>0.38075345999999999</v>
+      </c>
+      <c r="AA17">
+        <v>0.32128412000000001</v>
+      </c>
+      <c r="AB17">
+        <v>0.44112000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>0.48620540000000001</v>
+      </c>
+      <c r="AD17">
+        <v>0.53833759999999997</v>
+      </c>
+      <c r="AE17">
+        <v>0.57299732999999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1361,8 +2313,56 @@
       <c r="O18">
         <v>0.48886096000000001</v>
       </c>
+      <c r="P18">
+        <v>2.4344632000000001E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0.22426349000000001</v>
+      </c>
+      <c r="R18">
+        <v>4.5390450000000002E-3</v>
+      </c>
+      <c r="S18">
+        <v>0.17845918</v>
+      </c>
+      <c r="T18">
+        <v>0.32545039999999997</v>
+      </c>
+      <c r="U18">
+        <v>0.13862719000000001</v>
+      </c>
+      <c r="V18">
+        <v>0.85854505999999997</v>
+      </c>
+      <c r="W18">
+        <v>0.88418125999999997</v>
+      </c>
+      <c r="X18">
+        <v>8.7989405000000007E-2</v>
+      </c>
+      <c r="Y18">
+        <v>0.18690343000000001</v>
+      </c>
+      <c r="Z18">
+        <v>0.92123619999999995</v>
+      </c>
+      <c r="AA18">
+        <v>0.75540149999999995</v>
+      </c>
+      <c r="AB18">
+        <v>0.47033565999999999</v>
+      </c>
+      <c r="AC18">
+        <v>0.54356813000000004</v>
+      </c>
+      <c r="AD18">
+        <v>0.85343899999999995</v>
+      </c>
+      <c r="AE18">
+        <v>0.77915144000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1408,8 +2408,56 @@
       <c r="O19">
         <v>0.39683162999999999</v>
       </c>
+      <c r="P19">
+        <v>8.7699200000000005E-3</v>
+      </c>
+      <c r="Q19">
+        <v>0.20942314000000001</v>
+      </c>
+      <c r="R19">
+        <v>7.9332680000000003E-3</v>
+      </c>
+      <c r="S19">
+        <v>0.3977483</v>
+      </c>
+      <c r="T19">
+        <v>0.52688820000000003</v>
+      </c>
+      <c r="U19">
+        <v>0.74444710000000003</v>
+      </c>
+      <c r="V19">
+        <v>3.9091430000000003E-2</v>
+      </c>
+      <c r="W19">
+        <v>1.7674760000000001E-2</v>
+      </c>
+      <c r="X19">
+        <v>7.2915740000000007E-2</v>
+      </c>
+      <c r="Y19">
+        <v>0.16347476999999999</v>
+      </c>
+      <c r="Z19">
+        <v>7.8375979999999998E-2</v>
+      </c>
+      <c r="AA19">
+        <v>0.12359592</v>
+      </c>
+      <c r="AB19">
+        <v>7.6089944000000001E-3</v>
+      </c>
+      <c r="AC19">
+        <v>0.11741814</v>
+      </c>
+      <c r="AD19">
+        <v>7.8371549999999998E-2</v>
+      </c>
+      <c r="AE19">
+        <v>0.18308583</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1455,8 +2503,56 @@
       <c r="O20">
         <v>0.55660200000000004</v>
       </c>
+      <c r="P20">
+        <v>1.6787132E-2</v>
+      </c>
+      <c r="Q20">
+        <v>0.21400501999999999</v>
+      </c>
+      <c r="R20">
+        <v>1.4805263999999999E-3</v>
+      </c>
+      <c r="S20">
+        <v>0.10101143999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.2637873</v>
+      </c>
+      <c r="U20">
+        <v>1.5962670000000002E-2</v>
+      </c>
+      <c r="V20">
+        <v>0.41995183000000003</v>
+      </c>
+      <c r="W20">
+        <v>0.39391533000000001</v>
+      </c>
+      <c r="X20">
+        <v>0.38195652000000002</v>
+      </c>
+      <c r="Y20">
+        <v>0.39771139999999999</v>
+      </c>
+      <c r="Z20">
+        <v>6.4815590000000006E-2</v>
+      </c>
+      <c r="AA20">
+        <v>0.16795449000000001</v>
+      </c>
+      <c r="AB20">
+        <v>0.19412233000000001</v>
+      </c>
+      <c r="AC20">
+        <v>9.1415289999999996E-2</v>
+      </c>
+      <c r="AD20">
+        <v>7.9084950000000001E-2</v>
+      </c>
+      <c r="AE20">
+        <v>8.4571759999999996E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1502,8 +2598,56 @@
       <c r="O21">
         <v>0.33778942000000001</v>
       </c>
+      <c r="P21">
+        <v>2.0273115000000001E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.28297549999999999</v>
+      </c>
+      <c r="R21">
+        <v>9.3607020000000003E-3</v>
+      </c>
+      <c r="S21">
+        <v>0.20615087000000001</v>
+      </c>
+      <c r="T21">
+        <v>0.32046163</v>
+      </c>
+      <c r="U21">
+        <v>4.754659E-2</v>
+      </c>
+      <c r="V21">
+        <v>0.51281480000000002</v>
+      </c>
+      <c r="W21">
+        <v>0.57640100000000005</v>
+      </c>
+      <c r="X21">
+        <v>1.6985357E-2</v>
+      </c>
+      <c r="Y21">
+        <v>6.5674369999999996E-2</v>
+      </c>
+      <c r="Z21">
+        <v>0.145897</v>
+      </c>
+      <c r="AA21">
+        <v>0.21421604999999999</v>
+      </c>
+      <c r="AB21">
+        <v>4.4521517000000004E-3</v>
+      </c>
+      <c r="AC21">
+        <v>3.1186212000000001E-2</v>
+      </c>
+      <c r="AD21">
+        <v>0.15736559999999999</v>
+      </c>
+      <c r="AE21">
+        <v>0.24048881</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1549,8 +2693,56 @@
       <c r="O22">
         <v>0.47475052000000001</v>
       </c>
+      <c r="P22">
+        <v>0.31160053999999998</v>
+      </c>
+      <c r="Q22">
+        <v>0.44202259999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.28213086999999998</v>
+      </c>
+      <c r="S22">
+        <v>0.76827789999999996</v>
+      </c>
+      <c r="T22">
+        <v>0.30213050000000002</v>
+      </c>
+      <c r="U22">
+        <v>0.11675826</v>
+      </c>
+      <c r="V22">
+        <v>1.8245609999999999E-2</v>
+      </c>
+      <c r="W22">
+        <v>2.15359E-2</v>
+      </c>
+      <c r="X22">
+        <v>0.90748510000000004</v>
+      </c>
+      <c r="Y22">
+        <v>0.86416570000000004</v>
+      </c>
+      <c r="Z22">
+        <v>0.8730521</v>
+      </c>
+      <c r="AA22">
+        <v>0.81630579999999997</v>
+      </c>
+      <c r="AB22">
+        <v>0.92683095000000004</v>
+      </c>
+      <c r="AC22">
+        <v>0.82361554999999997</v>
+      </c>
+      <c r="AD22">
+        <v>0.96576240000000002</v>
+      </c>
+      <c r="AE22">
+        <v>0.9302262</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1596,8 +2788,56 @@
       <c r="O23">
         <v>0.33172595999999999</v>
       </c>
+      <c r="P23">
+        <v>6.961231E-3</v>
+      </c>
+      <c r="Q23">
+        <v>0.35921049999999999</v>
+      </c>
+      <c r="R23">
+        <v>8.6733769999999995E-4</v>
+      </c>
+      <c r="S23">
+        <v>0.36424931999999999</v>
+      </c>
+      <c r="T23">
+        <v>0.36713784999999999</v>
+      </c>
+      <c r="U23">
+        <v>0.13267524999999999</v>
+      </c>
+      <c r="V23">
+        <v>3.2208529999999999E-2</v>
+      </c>
+      <c r="W23">
+        <v>1.9860300000000001E-2</v>
+      </c>
+      <c r="X23">
+        <v>5.9891485000000001E-2</v>
+      </c>
+      <c r="Y23">
+        <v>0.14472370000000001</v>
+      </c>
+      <c r="Z23">
+        <v>0.57872020000000002</v>
+      </c>
+      <c r="AA23">
+        <v>0.52639437</v>
+      </c>
+      <c r="AB23">
+        <v>3.1230609999999999E-2</v>
+      </c>
+      <c r="AC23">
+        <v>9.4486355999999994E-2</v>
+      </c>
+      <c r="AD23">
+        <v>0.49452745999999997</v>
+      </c>
+      <c r="AE23">
+        <v>0.48616510000000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1643,8 +2883,56 @@
       <c r="O24">
         <v>0.36610167999999998</v>
       </c>
+      <c r="P24">
+        <v>3.4707017E-2</v>
+      </c>
+      <c r="Q24">
+        <v>0.23299154999999999</v>
+      </c>
+      <c r="R24">
+        <v>2.5229633000000001E-2</v>
+      </c>
+      <c r="S24">
+        <v>0.32667994</v>
+      </c>
+      <c r="T24">
+        <v>0.30689480000000002</v>
+      </c>
+      <c r="U24">
+        <v>0.13126584999999999</v>
+      </c>
+      <c r="V24">
+        <v>0.50616556000000001</v>
+      </c>
+      <c r="W24">
+        <v>0.46495244000000002</v>
+      </c>
+      <c r="X24">
+        <v>0.57853569999999999</v>
+      </c>
+      <c r="Y24">
+        <v>0.40471867</v>
+      </c>
+      <c r="Z24">
+        <v>0.90568196999999995</v>
+      </c>
+      <c r="AA24">
+        <v>0.84115492999999997</v>
+      </c>
+      <c r="AB24">
+        <v>0.39001203000000001</v>
+      </c>
+      <c r="AC24">
+        <v>0.42751782999999999</v>
+      </c>
+      <c r="AD24">
+        <v>0.94226869999999996</v>
+      </c>
+      <c r="AE24">
+        <v>0.85484269999999996</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1690,8 +2978,56 @@
       <c r="O25">
         <v>0.27340734</v>
       </c>
+      <c r="P25">
+        <v>0.18452209999999999</v>
+      </c>
+      <c r="Q25">
+        <v>0.17597088</v>
+      </c>
+      <c r="R25">
+        <v>2.4930382000000001E-2</v>
+      </c>
+      <c r="S25">
+        <v>3.0124359E-2</v>
+      </c>
+      <c r="T25">
+        <v>0.31476461999999999</v>
+      </c>
+      <c r="U25">
+        <v>0.27166469999999998</v>
+      </c>
+      <c r="V25">
+        <v>0.93005747000000005</v>
+      </c>
+      <c r="W25">
+        <v>0.97339903999999999</v>
+      </c>
+      <c r="X25">
+        <v>0.46753465999999999</v>
+      </c>
+      <c r="Y25">
+        <v>0.43040907</v>
+      </c>
+      <c r="Z25">
+        <v>0.92922914000000001</v>
+      </c>
+      <c r="AA25">
+        <v>0.89238859999999998</v>
+      </c>
+      <c r="AB25">
+        <v>0.57895105999999996</v>
+      </c>
+      <c r="AC25">
+        <v>0.69463989999999998</v>
+      </c>
+      <c r="AD25">
+        <v>0.92700267000000003</v>
+      </c>
+      <c r="AE25">
+        <v>0.87696890000000005</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1737,8 +3073,56 @@
       <c r="O26">
         <v>0.30411159999999998</v>
       </c>
+      <c r="P26">
+        <v>0.11046978</v>
+      </c>
+      <c r="Q26">
+        <v>0.41415107000000001</v>
+      </c>
+      <c r="R26">
+        <v>7.1051246000000002E-3</v>
+      </c>
+      <c r="S26">
+        <v>0.20565148</v>
+      </c>
+      <c r="T26">
+        <v>0.36031257999999999</v>
+      </c>
+      <c r="U26">
+        <v>0.19340256</v>
+      </c>
+      <c r="V26">
+        <v>0.91803389999999996</v>
+      </c>
+      <c r="W26">
+        <v>0.92143180000000002</v>
+      </c>
+      <c r="X26">
+        <v>0.42014644000000001</v>
+      </c>
+      <c r="Y26">
+        <v>0.37596643000000002</v>
+      </c>
+      <c r="Z26">
+        <v>0.97746557000000001</v>
+      </c>
+      <c r="AA26">
+        <v>0.91677189999999997</v>
+      </c>
+      <c r="AB26">
+        <v>3.7453763000000001E-2</v>
+      </c>
+      <c r="AC26">
+        <v>0.1307315</v>
+      </c>
+      <c r="AD26">
+        <v>0.77586140000000003</v>
+      </c>
+      <c r="AE26">
+        <v>0.62488569999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1784,8 +3168,56 @@
       <c r="O27">
         <v>0.56763699999999995</v>
       </c>
+      <c r="P27">
+        <v>6.9939329999999999E-3</v>
+      </c>
+      <c r="Q27">
+        <v>0.26023346000000003</v>
+      </c>
+      <c r="R27">
+        <v>4.0509686000000003E-2</v>
+      </c>
+      <c r="S27">
+        <v>0.21406443</v>
+      </c>
+      <c r="T27">
+        <v>0.37823820000000002</v>
+      </c>
+      <c r="U27">
+        <v>0.46914127</v>
+      </c>
+      <c r="V27">
+        <v>0.24931718</v>
+      </c>
+      <c r="W27">
+        <v>0.18814431000000001</v>
+      </c>
+      <c r="X27">
+        <v>0.68649490000000002</v>
+      </c>
+      <c r="Y27">
+        <v>0.53625137</v>
+      </c>
+      <c r="Z27">
+        <v>7.1116894E-2</v>
+      </c>
+      <c r="AA27">
+        <v>0.10558077</v>
+      </c>
+      <c r="AB27">
+        <v>0.33139983000000001</v>
+      </c>
+      <c r="AC27">
+        <v>0.23751420000000001</v>
+      </c>
+      <c r="AD27">
+        <v>0.41414022</v>
+      </c>
+      <c r="AE27">
+        <v>0.51462169999999996</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1831,8 +3263,56 @@
       <c r="O28">
         <v>0.52099980000000001</v>
       </c>
+      <c r="P28">
+        <v>6.4171320000000004E-2</v>
+      </c>
+      <c r="Q28">
+        <v>0.17233005000000001</v>
+      </c>
+      <c r="R28">
+        <v>0.36077389999999998</v>
+      </c>
+      <c r="S28">
+        <v>0.47473586000000001</v>
+      </c>
+      <c r="T28">
+        <v>0.54848545999999998</v>
+      </c>
+      <c r="U28">
+        <v>0.19737921999999999</v>
+      </c>
+      <c r="V28">
+        <v>0.19090329</v>
+      </c>
+      <c r="W28">
+        <v>0.18596196000000001</v>
+      </c>
+      <c r="X28">
+        <v>0.35214620000000002</v>
+      </c>
+      <c r="Y28">
+        <v>0.33172523999999998</v>
+      </c>
+      <c r="Z28">
+        <v>0.90355015000000005</v>
+      </c>
+      <c r="AA28">
+        <v>0.71510479999999998</v>
+      </c>
+      <c r="AB28">
+        <v>0.27134585</v>
+      </c>
+      <c r="AC28">
+        <v>0.27844226</v>
+      </c>
+      <c r="AD28">
+        <v>0.23546434999999999</v>
+      </c>
+      <c r="AE28">
+        <v>0.29373324000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1878,8 +3358,56 @@
       <c r="O29">
         <v>0.36324226999999998</v>
       </c>
+      <c r="P29">
+        <v>0.16434814</v>
+      </c>
+      <c r="Q29">
+        <v>0.26996281999999999</v>
+      </c>
+      <c r="R29">
+        <v>0.38531995000000002</v>
+      </c>
+      <c r="S29">
+        <v>0.43434578000000001</v>
+      </c>
+      <c r="T29">
+        <v>0.56881400000000004</v>
+      </c>
+      <c r="U29">
+        <v>0.76974136000000004</v>
+      </c>
+      <c r="V29">
+        <v>0.83578909999999995</v>
+      </c>
+      <c r="W29">
+        <v>0.88100654</v>
+      </c>
+      <c r="X29">
+        <v>0.45422574999999998</v>
+      </c>
+      <c r="Y29">
+        <v>0.47428682</v>
+      </c>
+      <c r="Z29">
+        <v>0.56780129999999995</v>
+      </c>
+      <c r="AA29">
+        <v>0.44809969999999999</v>
+      </c>
+      <c r="AB29">
+        <v>0.18518096000000001</v>
+      </c>
+      <c r="AC29">
+        <v>0.30803150000000001</v>
+      </c>
+      <c r="AD29">
+        <v>0.74042034000000001</v>
+      </c>
+      <c r="AE29">
+        <v>0.7156266</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1901,8 +3429,26 @@
       <c r="M30" s="3">
         <v>0.74036944000000005</v>
       </c>
+      <c r="V30" s="3">
+        <v>0.38929649999999999</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.43517192999999998</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0.67752135000000002</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0.73583995999999996</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>3.4731810000000002E-2</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>9.8018690000000006E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1948,8 +3494,56 @@
       <c r="O31">
         <v>0.32995131999999999</v>
       </c>
+      <c r="P31" s="5">
+        <v>1.0083602000000001E-2</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0.24705811999999999</v>
+      </c>
+      <c r="R31" s="5">
+        <v>4.2537692999999998E-3</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.28525816999999998</v>
+      </c>
+      <c r="T31">
+        <v>0.45759398000000001</v>
+      </c>
+      <c r="U31">
+        <v>0.41944357999999998</v>
+      </c>
+      <c r="V31">
+        <v>0.91132926999999997</v>
+      </c>
+      <c r="W31">
+        <v>0.93589246000000004</v>
+      </c>
+      <c r="X31">
+        <v>0.45984705999999997</v>
+      </c>
+      <c r="Y31">
+        <v>0.49439929999999999</v>
+      </c>
+      <c r="Z31">
+        <v>0.18790701000000001</v>
+      </c>
+      <c r="AA31">
+        <v>0.26277964999999998</v>
+      </c>
+      <c r="AB31">
+        <v>0.41217123999999999</v>
+      </c>
+      <c r="AC31">
+        <v>0.45672237999999998</v>
+      </c>
+      <c r="AD31">
+        <v>0.12098703</v>
+      </c>
+      <c r="AE31">
+        <v>0.13079429000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1995,8 +3589,56 @@
       <c r="O32">
         <v>0.58058863999999999</v>
       </c>
+      <c r="P32">
+        <v>9.5843049999999996E-3</v>
+      </c>
+      <c r="Q32">
+        <v>0.4999188</v>
+      </c>
+      <c r="R32">
+        <v>1.5441020999999999E-3</v>
+      </c>
+      <c r="S32">
+        <v>0.41131708</v>
+      </c>
+      <c r="T32">
+        <v>0.41748606999999999</v>
+      </c>
+      <c r="U32">
+        <v>0.32188909999999998</v>
+      </c>
+      <c r="V32">
+        <v>8.1334050000000005E-2</v>
+      </c>
+      <c r="W32">
+        <v>8.2005339999999996E-2</v>
+      </c>
+      <c r="X32">
+        <v>1.7757015000000001E-2</v>
+      </c>
+      <c r="Y32">
+        <v>0.112706564</v>
+      </c>
+      <c r="Z32">
+        <v>3.3644475E-2</v>
+      </c>
+      <c r="AA32">
+        <v>7.678343E-2</v>
+      </c>
+      <c r="AB32">
+        <v>9.3931410000000007E-3</v>
+      </c>
+      <c r="AC32">
+        <v>7.4170780000000006E-2</v>
+      </c>
+      <c r="AD32">
+        <v>5.0750660000000003E-2</v>
+      </c>
+      <c r="AE32">
+        <v>0.111705095</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2042,8 +3684,56 @@
       <c r="O33">
         <v>0.42363889999999998</v>
       </c>
+      <c r="P33">
+        <v>3.8829107000000002E-2</v>
+      </c>
+      <c r="Q33">
+        <v>0.1819809</v>
+      </c>
+      <c r="R33">
+        <v>4.2959102000000001E-3</v>
+      </c>
+      <c r="S33">
+        <v>9.8911256000000003E-2</v>
+      </c>
+      <c r="T33">
+        <v>0.26539560000000001</v>
+      </c>
+      <c r="U33">
+        <v>2.6288849999999999E-2</v>
+      </c>
+      <c r="V33">
+        <v>3.2167670000000002E-2</v>
+      </c>
+      <c r="W33">
+        <v>2.0126729999999999E-2</v>
+      </c>
+      <c r="X33">
+        <v>0.44552395</v>
+      </c>
+      <c r="Y33">
+        <v>0.36861719999999998</v>
+      </c>
+      <c r="Z33">
+        <v>0.36559360000000002</v>
+      </c>
+      <c r="AA33">
+        <v>0.46487551999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0.60321754000000005</v>
+      </c>
+      <c r="AC33">
+        <v>0.63971129999999998</v>
+      </c>
+      <c r="AD33">
+        <v>0.61208236000000005</v>
+      </c>
+      <c r="AE33">
+        <v>0.54984529999999998</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2089,8 +3779,56 @@
       <c r="O34">
         <v>0.32263848000000001</v>
       </c>
+      <c r="P34">
+        <v>1.8922858000000001E-2</v>
+      </c>
+      <c r="Q34">
+        <v>4.8282633999999998E-2</v>
+      </c>
+      <c r="R34">
+        <v>3.3178736000000003E-4</v>
+      </c>
+      <c r="S34">
+        <v>1.6410172000000001E-2</v>
+      </c>
+      <c r="T34">
+        <v>0.31767153999999997</v>
+      </c>
+      <c r="U34">
+        <v>0.13277111999999999</v>
+      </c>
+      <c r="V34">
+        <v>0.53880227000000003</v>
+      </c>
+      <c r="W34">
+        <v>0.61322253999999998</v>
+      </c>
+      <c r="X34">
+        <v>0.12605876999999999</v>
+      </c>
+      <c r="Y34">
+        <v>0.10442227</v>
+      </c>
+      <c r="Z34">
+        <v>0.90339016999999999</v>
+      </c>
+      <c r="AA34">
+        <v>0.78953899999999999</v>
+      </c>
+      <c r="AB34">
+        <v>7.108051E-2</v>
+      </c>
+      <c r="AC34">
+        <v>0.11870193499999999</v>
+      </c>
+      <c r="AD34">
+        <v>0.17790002999999999</v>
+      </c>
+      <c r="AE34">
+        <v>0.23911878</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2136,8 +3874,56 @@
       <c r="O35">
         <v>0.33448430000000001</v>
       </c>
+      <c r="P35">
+        <v>8.4339689999999995E-2</v>
+      </c>
+      <c r="Q35">
+        <v>0.25323287</v>
+      </c>
+      <c r="R35">
+        <v>3.8545713000000002E-2</v>
+      </c>
+      <c r="S35">
+        <v>0.2561348</v>
+      </c>
+      <c r="T35">
+        <v>0.65264789999999995</v>
+      </c>
+      <c r="U35">
+        <v>0.90399337000000002</v>
+      </c>
+      <c r="V35">
+        <v>0.87384134999999996</v>
+      </c>
+      <c r="W35">
+        <v>0.86223625999999998</v>
+      </c>
+      <c r="X35">
+        <v>0.32526593999999998</v>
+      </c>
+      <c r="Y35">
+        <v>0.273225</v>
+      </c>
+      <c r="Z35">
+        <v>0.56030619999999998</v>
+      </c>
+      <c r="AA35">
+        <v>0.39355217999999997</v>
+      </c>
+      <c r="AB35">
+        <v>0.11492664</v>
+      </c>
+      <c r="AC35">
+        <v>0.15740683999999999</v>
+      </c>
+      <c r="AD35">
+        <v>0.63719009999999998</v>
+      </c>
+      <c r="AE35">
+        <v>0.68916259999999996</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2183,8 +3969,56 @@
       <c r="O36">
         <v>0.47912640000000001</v>
       </c>
+      <c r="P36">
+        <v>8.5921179999999993E-3</v>
+      </c>
+      <c r="Q36">
+        <v>0.37530356999999998</v>
+      </c>
+      <c r="R36">
+        <v>5.3280850000000002E-4</v>
+      </c>
+      <c r="S36">
+        <v>0.40523005000000001</v>
+      </c>
+      <c r="T36">
+        <v>0.41798766999999998</v>
+      </c>
+      <c r="U36">
+        <v>0.50825089999999995</v>
+      </c>
+      <c r="V36">
+        <v>4.1743299999999997E-2</v>
+      </c>
+      <c r="W36">
+        <v>2.233545E-2</v>
+      </c>
+      <c r="X36">
+        <v>4.1375518E-2</v>
+      </c>
+      <c r="Y36">
+        <v>6.9538459999999996E-2</v>
+      </c>
+      <c r="Z36">
+        <v>0.21377182</v>
+      </c>
+      <c r="AA36">
+        <v>0.22926386000000001</v>
+      </c>
+      <c r="AB36">
+        <v>3.1141855E-2</v>
+      </c>
+      <c r="AC36">
+        <v>9.3714446000000007E-2</v>
+      </c>
+      <c r="AD36">
+        <v>0.57899827000000004</v>
+      </c>
+      <c r="AE36">
+        <v>0.35382166999999998</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -2230,8 +4064,56 @@
       <c r="O37">
         <v>0.38885682999999999</v>
       </c>
+      <c r="P37">
+        <v>0.16260567000000001</v>
+      </c>
+      <c r="Q37">
+        <v>0.20378086000000001</v>
+      </c>
+      <c r="R37">
+        <v>7.1234973E-3</v>
+      </c>
+      <c r="S37">
+        <v>2.9943562999999999E-2</v>
+      </c>
+      <c r="T37">
+        <v>0.40368540000000003</v>
+      </c>
+      <c r="U37">
+        <v>5.8333500000000003E-2</v>
+      </c>
+      <c r="V37">
+        <v>0.48093817</v>
+      </c>
+      <c r="W37">
+        <v>0.41733256000000002</v>
+      </c>
+      <c r="X37">
+        <v>2.1289737999999999E-2</v>
+      </c>
+      <c r="Y37">
+        <v>0.23730054</v>
+      </c>
+      <c r="Z37">
+        <v>2.1341773000000001E-2</v>
+      </c>
+      <c r="AA37">
+        <v>5.0815314E-2</v>
+      </c>
+      <c r="AB37">
+        <v>0.29162523000000001</v>
+      </c>
+      <c r="AC37">
+        <v>0.42701840000000002</v>
+      </c>
+      <c r="AD37">
+        <v>3.0460372999999999E-2</v>
+      </c>
+      <c r="AE37">
+        <v>7.2781700000000005E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2277,8 +4159,56 @@
       <c r="O38">
         <v>0.35518557000000001</v>
       </c>
+      <c r="P38">
+        <v>1.1715756000000001E-2</v>
+      </c>
+      <c r="Q38">
+        <v>0.49275799999999997</v>
+      </c>
+      <c r="R38">
+        <v>9.2893965999999994E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.19301895999999999</v>
+      </c>
+      <c r="T38">
+        <v>0.45349464</v>
+      </c>
+      <c r="U38">
+        <v>0.52114079999999996</v>
+      </c>
+      <c r="V38">
+        <v>0.52035343999999994</v>
+      </c>
+      <c r="W38">
+        <v>0.34012495999999998</v>
+      </c>
+      <c r="X38">
+        <v>0.32075710000000002</v>
+      </c>
+      <c r="Y38">
+        <v>0.25651497000000001</v>
+      </c>
+      <c r="Z38">
+        <v>0.84031960000000006</v>
+      </c>
+      <c r="AA38">
+        <v>0.80421030000000004</v>
+      </c>
+      <c r="AB38">
+        <v>3.9521642000000003E-2</v>
+      </c>
+      <c r="AC38">
+        <v>0.16705053</v>
+      </c>
+      <c r="AD38">
+        <v>0.38607750000000002</v>
+      </c>
+      <c r="AE38">
+        <v>0.41812484999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2324,8 +4254,56 @@
       <c r="O39">
         <v>0.60307840000000001</v>
       </c>
+      <c r="P39">
+        <v>1.390806E-2</v>
+      </c>
+      <c r="Q39">
+        <v>0.51659054000000004</v>
+      </c>
+      <c r="R39">
+        <v>9.996727999999999E-4</v>
+      </c>
+      <c r="S39">
+        <v>0.38090235</v>
+      </c>
+      <c r="T39">
+        <v>0.49058370000000001</v>
+      </c>
+      <c r="U39">
+        <v>0.43833067999999997</v>
+      </c>
+      <c r="V39">
+        <v>0.11082533</v>
+      </c>
+      <c r="W39">
+        <v>6.321061E-2</v>
+      </c>
+      <c r="X39">
+        <v>0.11811702</v>
+      </c>
+      <c r="Y39">
+        <v>0.19280347</v>
+      </c>
+      <c r="Z39">
+        <v>0.13191310000000001</v>
+      </c>
+      <c r="AA39">
+        <v>0.21276376</v>
+      </c>
+      <c r="AB39">
+        <v>4.3354141999999998E-2</v>
+      </c>
+      <c r="AC39">
+        <v>0.13004826999999999</v>
+      </c>
+      <c r="AD39">
+        <v>4.899937E-2</v>
+      </c>
+      <c r="AE39">
+        <v>0.13121484</v>
+      </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2371,8 +4349,56 @@
       <c r="O40">
         <v>0.52423083999999998</v>
       </c>
+      <c r="P40">
+        <v>7.7170803999999996E-2</v>
+      </c>
+      <c r="Q40">
+        <v>0.31255704000000001</v>
+      </c>
+      <c r="R40">
+        <v>5.7137359999999998E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.43808397999999998</v>
+      </c>
+      <c r="T40">
+        <v>0.38688942999999998</v>
+      </c>
+      <c r="U40">
+        <v>7.1661610000000001E-2</v>
+      </c>
+      <c r="V40">
+        <v>0.96867174</v>
+      </c>
+      <c r="W40">
+        <v>0.98119705999999995</v>
+      </c>
+      <c r="X40">
+        <v>8.3251459999999999E-2</v>
+      </c>
+      <c r="Y40">
+        <v>0.26323619999999998</v>
+      </c>
+      <c r="Z40">
+        <v>0.58497869999999996</v>
+      </c>
+      <c r="AA40">
+        <v>0.53929674999999999</v>
+      </c>
+      <c r="AB40">
+        <v>0.29482325999999998</v>
+      </c>
+      <c r="AC40">
+        <v>0.38246742</v>
+      </c>
+      <c r="AD40">
+        <v>0.88502824000000002</v>
+      </c>
+      <c r="AE40">
+        <v>0.78001975999999995</v>
+      </c>
     </row>
-    <row r="41" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -2394,8 +4420,26 @@
       <c r="M41" s="3">
         <v>0.93747382999999995</v>
       </c>
+      <c r="V41" s="3">
+        <v>0.98785069999999997</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0.99293195999999995</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0.16347576999999999</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0.29537249999999998</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0.61905359999999998</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0.62200856000000004</v>
+      </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2441,8 +4485,56 @@
       <c r="O42">
         <v>0.29129955000000002</v>
       </c>
+      <c r="P42">
+        <v>2.5082652E-3</v>
+      </c>
+      <c r="Q42">
+        <v>0.19037898</v>
+      </c>
+      <c r="R42">
+        <v>2.2422994999999999E-3</v>
+      </c>
+      <c r="S42">
+        <v>0.17921197</v>
+      </c>
+      <c r="T42">
+        <v>0.43087193000000001</v>
+      </c>
+      <c r="U42">
+        <v>0.62027686999999998</v>
+      </c>
+      <c r="V42">
+        <v>0.40902928</v>
+      </c>
+      <c r="W42">
+        <v>0.24755663</v>
+      </c>
+      <c r="X42">
+        <v>1.1173347E-2</v>
+      </c>
+      <c r="Y42">
+        <v>6.1203017999999998E-2</v>
+      </c>
+      <c r="Z42">
+        <v>0.16362950000000001</v>
+      </c>
+      <c r="AA42">
+        <v>0.26385920000000002</v>
+      </c>
+      <c r="AB42">
+        <v>3.8703013000000001E-2</v>
+      </c>
+      <c r="AC42">
+        <v>0.1332043</v>
+      </c>
+      <c r="AD42">
+        <v>0.12744026999999999</v>
+      </c>
+      <c r="AE42">
+        <v>0.14954236000000001</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -2488,8 +4580,56 @@
       <c r="O43">
         <v>0.3380031</v>
       </c>
+      <c r="P43" s="5">
+        <v>0.18544176000000001</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0.12805252</v>
+      </c>
+      <c r="R43" s="5">
+        <v>9.8033259999999994E-3</v>
+      </c>
+      <c r="S43" s="5">
+        <v>3.4430080000000002E-2</v>
+      </c>
+      <c r="T43">
+        <v>0.33278653000000002</v>
+      </c>
+      <c r="U43">
+        <v>6.8348800000000001E-2</v>
+      </c>
+      <c r="V43">
+        <v>0.11756606999999999</v>
+      </c>
+      <c r="W43">
+        <v>8.1196000000000004E-2</v>
+      </c>
+      <c r="X43">
+        <v>9.9087110000000006E-2</v>
+      </c>
+      <c r="Y43">
+        <v>0.26167069999999998</v>
+      </c>
+      <c r="Z43">
+        <v>0.88810829999999996</v>
+      </c>
+      <c r="AA43">
+        <v>0.83664760000000005</v>
+      </c>
+      <c r="AB43">
+        <v>9.6494354000000004E-2</v>
+      </c>
+      <c r="AC43">
+        <v>0.18750691</v>
+      </c>
+      <c r="AD43">
+        <v>0.95780014999999996</v>
+      </c>
+      <c r="AE43">
+        <v>0.9276221</v>
+      </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -2535,8 +4675,56 @@
       <c r="O44">
         <v>0.33752149999999997</v>
       </c>
+      <c r="P44">
+        <v>0.13703187999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.37633552999999997</v>
+      </c>
+      <c r="R44">
+        <v>3.4645409999999998E-3</v>
+      </c>
+      <c r="S44">
+        <v>2.2113076999999998E-2</v>
+      </c>
+      <c r="T44">
+        <v>0.50573360000000001</v>
+      </c>
+      <c r="U44">
+        <v>0.67453074000000002</v>
+      </c>
+      <c r="V44">
+        <v>0.28320915000000002</v>
+      </c>
+      <c r="W44">
+        <v>0.35550799999999999</v>
+      </c>
+      <c r="X44">
+        <v>0.52069750000000004</v>
+      </c>
+      <c r="Y44">
+        <v>0.42975152</v>
+      </c>
+      <c r="Z44">
+        <v>0.81100930000000004</v>
+      </c>
+      <c r="AA44">
+        <v>0.7395581</v>
+      </c>
+      <c r="AB44">
+        <v>0.36051142000000003</v>
+      </c>
+      <c r="AC44">
+        <v>0.30322167</v>
+      </c>
+      <c r="AD44">
+        <v>0.95513590000000004</v>
+      </c>
+      <c r="AE44">
+        <v>0.91225889999999998</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2582,8 +4770,56 @@
       <c r="O45">
         <v>0.32493177000000001</v>
       </c>
+      <c r="P45">
+        <v>4.9087030000000004E-3</v>
+      </c>
+      <c r="Q45">
+        <v>0.53613686999999999</v>
+      </c>
+      <c r="R45">
+        <v>3.6920710000000001E-4</v>
+      </c>
+      <c r="S45">
+        <v>0.45976365000000002</v>
+      </c>
+      <c r="T45">
+        <v>0.44603756</v>
+      </c>
+      <c r="U45">
+        <v>0.32709349999999998</v>
+      </c>
+      <c r="V45">
+        <v>7.6756019999999994E-2</v>
+      </c>
+      <c r="W45">
+        <v>3.2236050000000002E-2</v>
+      </c>
+      <c r="X45">
+        <v>0.87809294000000004</v>
+      </c>
+      <c r="Y45">
+        <v>0.62629120000000005</v>
+      </c>
+      <c r="Z45">
+        <v>7.9005179999999994E-2</v>
+      </c>
+      <c r="AA45">
+        <v>0.114016965</v>
+      </c>
+      <c r="AB45">
+        <v>0.63990579999999997</v>
+      </c>
+      <c r="AC45">
+        <v>0.35516207999999999</v>
+      </c>
+      <c r="AD45">
+        <v>0.20524585000000001</v>
+      </c>
+      <c r="AE45">
+        <v>0.17733863</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2629,8 +4865,56 @@
       <c r="O46">
         <v>0.31378692000000002</v>
       </c>
+      <c r="P46">
+        <v>0.10443232</v>
+      </c>
+      <c r="Q46">
+        <v>0.11120482499999999</v>
+      </c>
+      <c r="R46">
+        <v>2.3950810999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>5.7139403999999998E-2</v>
+      </c>
+      <c r="T46">
+        <v>0.38253095999999998</v>
+      </c>
+      <c r="U46">
+        <v>0.13684887000000001</v>
+      </c>
+      <c r="V46">
+        <v>4.9698810000000003E-2</v>
+      </c>
+      <c r="W46">
+        <v>3.7303879999999998E-2</v>
+      </c>
+      <c r="X46">
+        <v>5.0377600000000002E-2</v>
+      </c>
+      <c r="Y46">
+        <v>0.18535206000000001</v>
+      </c>
+      <c r="Z46">
+        <v>0.210647</v>
+      </c>
+      <c r="AA46">
+        <v>0.31039129999999998</v>
+      </c>
+      <c r="AB46">
+        <v>8.7501689999999993E-2</v>
+      </c>
+      <c r="AC46">
+        <v>0.17273954999999999</v>
+      </c>
+      <c r="AD46">
+        <v>0.52626519999999999</v>
+      </c>
+      <c r="AE46">
+        <v>0.31815714</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2676,8 +4960,56 @@
       <c r="O47">
         <v>0.24892839999999999</v>
       </c>
+      <c r="P47">
+        <v>6.4822599999999994E-2</v>
+      </c>
+      <c r="Q47">
+        <v>0.39692134000000001</v>
+      </c>
+      <c r="R47">
+        <v>1.1006660999999999E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.45681240000000001</v>
+      </c>
+      <c r="T47">
+        <v>0.29128215000000002</v>
+      </c>
+      <c r="U47">
+        <v>6.4131439999999998E-2</v>
+      </c>
+      <c r="V47">
+        <v>0.13015921</v>
+      </c>
+      <c r="W47">
+        <v>0.16388655999999999</v>
+      </c>
+      <c r="X47">
+        <v>0.11290847</v>
+      </c>
+      <c r="Y47">
+        <v>0.17817595999999999</v>
+      </c>
+      <c r="Z47">
+        <v>0.68714595000000001</v>
+      </c>
+      <c r="AA47">
+        <v>0.54914960000000002</v>
+      </c>
+      <c r="AB47">
+        <v>6.5682260000000006E-2</v>
+      </c>
+      <c r="AC47">
+        <v>0.111189514</v>
+      </c>
+      <c r="AD47">
+        <v>0.52202194999999996</v>
+      </c>
+      <c r="AE47">
+        <v>0.62154215999999995</v>
+      </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2723,8 +5055,56 @@
       <c r="O48">
         <v>0.38674252999999997</v>
       </c>
+      <c r="P48">
+        <v>2.0259938000000001E-3</v>
+      </c>
+      <c r="Q48">
+        <v>0.25497945999999999</v>
+      </c>
+      <c r="R48">
+        <v>1.6452909000000001E-3</v>
+      </c>
+      <c r="S48">
+        <v>0.31506230000000002</v>
+      </c>
+      <c r="T48">
+        <v>0.296792</v>
+      </c>
+      <c r="U48">
+        <v>1.588504E-2</v>
+      </c>
+      <c r="V48">
+        <v>2.7676119999999998E-2</v>
+      </c>
+      <c r="W48">
+        <v>1.0972259999999999E-2</v>
+      </c>
+      <c r="X48">
+        <v>6.8309634999999994E-2</v>
+      </c>
+      <c r="Y48">
+        <v>0.11176995000000001</v>
+      </c>
+      <c r="Z48">
+        <v>1.5934777000000001E-2</v>
+      </c>
+      <c r="AA48">
+        <v>6.2995019999999999E-2</v>
+      </c>
+      <c r="AB48">
+        <v>0.10444194</v>
+      </c>
+      <c r="AC48">
+        <v>0.11186646</v>
+      </c>
+      <c r="AD48">
+        <v>1.5007644000000001E-2</v>
+      </c>
+      <c r="AE48">
+        <v>6.3419589999999998E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2770,8 +5150,56 @@
       <c r="O49">
         <v>0.40681463000000001</v>
       </c>
+      <c r="P49">
+        <v>9.4233470000000003E-3</v>
+      </c>
+      <c r="Q49">
+        <v>0.43182498000000002</v>
+      </c>
+      <c r="R49">
+        <v>2.9349163999999998E-3</v>
+      </c>
+      <c r="S49">
+        <v>0.45022413</v>
+      </c>
+      <c r="T49">
+        <v>0.41323647000000002</v>
+      </c>
+      <c r="U49">
+        <v>0.49644864</v>
+      </c>
+      <c r="V49">
+        <v>3.2930069999999999E-2</v>
+      </c>
+      <c r="W49">
+        <v>2.0540269999999999E-2</v>
+      </c>
+      <c r="X49">
+        <v>0.26025379999999998</v>
+      </c>
+      <c r="Y49">
+        <v>0.34324529999999998</v>
+      </c>
+      <c r="Z49">
+        <v>4.7959976000000001E-2</v>
+      </c>
+      <c r="AA49">
+        <v>0.10017972</v>
+      </c>
+      <c r="AB49">
+        <v>0.28913280000000002</v>
+      </c>
+      <c r="AC49">
+        <v>0.31529944999999998</v>
+      </c>
+      <c r="AD49">
+        <v>0.35979899999999998</v>
+      </c>
+      <c r="AE49">
+        <v>0.30554634000000003</v>
+      </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2817,8 +5245,56 @@
       <c r="O50">
         <v>0.27340734</v>
       </c>
+      <c r="P50">
+        <v>5.7084314999999997E-2</v>
+      </c>
+      <c r="Q50">
+        <v>0.14998776999999999</v>
+      </c>
+      <c r="R50">
+        <v>4.7715264E-3</v>
+      </c>
+      <c r="S50">
+        <v>9.5580116000000007E-2</v>
+      </c>
+      <c r="T50">
+        <v>0.37291327000000002</v>
+      </c>
+      <c r="U50">
+        <v>0.21262682999999999</v>
+      </c>
+      <c r="V50">
+        <v>3.86501E-2</v>
+      </c>
+      <c r="W50">
+        <v>2.8433960000000001E-2</v>
+      </c>
+      <c r="X50">
+        <v>0.72715030000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0.53391944999999996</v>
+      </c>
+      <c r="Z50">
+        <v>0.48624079999999997</v>
+      </c>
+      <c r="AA50">
+        <v>0.47400959999999998</v>
+      </c>
+      <c r="AB50">
+        <v>4.3022820000000003E-2</v>
+      </c>
+      <c r="AC50">
+        <v>8.7155684999999997E-2</v>
+      </c>
+      <c r="AD50">
+        <v>0.15900907</v>
+      </c>
+      <c r="AE50">
+        <v>0.16381022000000001</v>
+      </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2864,8 +5340,56 @@
       <c r="O51">
         <v>0.26804289999999997</v>
       </c>
+      <c r="P51">
+        <v>2.8686192999999999E-3</v>
+      </c>
+      <c r="Q51">
+        <v>0.30602214</v>
+      </c>
+      <c r="R51">
+        <v>5.3827225999999995E-4</v>
+      </c>
+      <c r="S51">
+        <v>0.32663637000000001</v>
+      </c>
+      <c r="T51">
+        <v>0.36305174000000001</v>
+      </c>
+      <c r="U51">
+        <v>8.7981539999999997E-2</v>
+      </c>
+      <c r="V51">
+        <v>6.6057790000000005E-2</v>
+      </c>
+      <c r="W51">
+        <v>2.4614489999999999E-2</v>
+      </c>
+      <c r="X51">
+        <v>4.6024290000000002E-2</v>
+      </c>
+      <c r="Y51">
+        <v>5.4882189999999997E-2</v>
+      </c>
+      <c r="Z51">
+        <v>0.23069271</v>
+      </c>
+      <c r="AA51">
+        <v>0.23465583000000001</v>
+      </c>
+      <c r="AB51">
+        <v>5.8052395E-2</v>
+      </c>
+      <c r="AC51">
+        <v>9.7428290000000001E-2</v>
+      </c>
+      <c r="AD51">
+        <v>3.8925853000000003E-2</v>
+      </c>
+      <c r="AE51">
+        <v>7.0577799999999996E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -2911,8 +5435,56 @@
       <c r="O52">
         <v>0.51781297000000004</v>
       </c>
+      <c r="P52">
+        <v>0.40860940000000001</v>
+      </c>
+      <c r="Q52">
+        <v>0.62551540000000005</v>
+      </c>
+      <c r="R52">
+        <v>0.1263502</v>
+      </c>
+      <c r="S52">
+        <v>0.3367155</v>
+      </c>
+      <c r="T52">
+        <v>0.60301729999999998</v>
+      </c>
+      <c r="U52">
+        <v>0.73738789999999999</v>
+      </c>
+      <c r="V52">
+        <v>0.70096480000000005</v>
+      </c>
+      <c r="W52">
+        <v>0.82013356999999998</v>
+      </c>
+      <c r="X52">
+        <v>2.7599255999999999E-2</v>
+      </c>
+      <c r="Y52">
+        <v>0.12136233</v>
+      </c>
+      <c r="Z52">
+        <v>0.88623339999999995</v>
+      </c>
+      <c r="AA52">
+        <v>0.74134549999999999</v>
+      </c>
+      <c r="AB52">
+        <v>9.4003909999999996E-2</v>
+      </c>
+      <c r="AC52">
+        <v>0.19762334000000001</v>
+      </c>
+      <c r="AD52">
+        <v>0.47764129999999999</v>
+      </c>
+      <c r="AE52">
+        <v>0.33093</v>
+      </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -2958,8 +5530,56 @@
       <c r="O53">
         <v>0.36661369999999999</v>
       </c>
+      <c r="P53">
+        <v>3.8066405999999998E-3</v>
+      </c>
+      <c r="Q53">
+        <v>0.27083010000000002</v>
+      </c>
+      <c r="R53">
+        <v>1.6019794E-3</v>
+      </c>
+      <c r="S53">
+        <v>0.23700419</v>
+      </c>
+      <c r="T53">
+        <v>0.29656877999999998</v>
+      </c>
+      <c r="U53">
+        <v>4.9326799999999997E-2</v>
+      </c>
+      <c r="V53">
+        <v>3.2930069999999999E-2</v>
+      </c>
+      <c r="W53">
+        <v>3.034976E-2</v>
+      </c>
+      <c r="X53">
+        <v>0.39681292000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0.31433423999999999</v>
+      </c>
+      <c r="Z53">
+        <v>0.37062377000000002</v>
+      </c>
+      <c r="AA53">
+        <v>0.49505788000000001</v>
+      </c>
+      <c r="AB53">
+        <v>9.2692319999999995E-2</v>
+      </c>
+      <c r="AC53">
+        <v>0.14482796000000001</v>
+      </c>
+      <c r="AD53">
+        <v>0.14978111</v>
+      </c>
+      <c r="AE53">
+        <v>0.23775408000000001</v>
+      </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3005,8 +5625,56 @@
       <c r="O54">
         <v>0.28390907999999998</v>
       </c>
+      <c r="P54">
+        <v>2.77197E-2</v>
+      </c>
+      <c r="Q54">
+        <v>0.36948973000000002</v>
+      </c>
+      <c r="R54">
+        <v>2.519266E-3</v>
+      </c>
+      <c r="S54">
+        <v>0.29223727999999999</v>
+      </c>
+      <c r="T54">
+        <v>0.39246209999999998</v>
+      </c>
+      <c r="U54">
+        <v>0.10273614</v>
+      </c>
+      <c r="V54">
+        <v>0.76713759999999998</v>
+      </c>
+      <c r="W54">
+        <v>0.85536219999999996</v>
+      </c>
+      <c r="X54">
+        <v>0.23104765999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0.24219789999999999</v>
+      </c>
+      <c r="Z54">
+        <v>0.23458935</v>
+      </c>
+      <c r="AA54">
+        <v>0.27092618000000002</v>
+      </c>
+      <c r="AB54">
+        <v>9.9092126000000003E-2</v>
+      </c>
+      <c r="AC54">
+        <v>0.27417703999999998</v>
+      </c>
+      <c r="AD54">
+        <v>0.18722087000000001</v>
+      </c>
+      <c r="AE54">
+        <v>0.30198000000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3052,8 +5720,56 @@
       <c r="O55">
         <v>0.38112304000000002</v>
       </c>
+      <c r="P55">
+        <v>0.20584726</v>
+      </c>
+      <c r="Q55">
+        <v>0.32106309999999999</v>
+      </c>
+      <c r="R55">
+        <v>0.119653724</v>
+      </c>
+      <c r="S55">
+        <v>9.7503140000000002E-2</v>
+      </c>
+      <c r="T55">
+        <v>0.51464370000000004</v>
+      </c>
+      <c r="U55">
+        <v>0.41366344999999999</v>
+      </c>
+      <c r="V55">
+        <v>0.70682710000000004</v>
+      </c>
+      <c r="W55">
+        <v>0.5279296</v>
+      </c>
+      <c r="X55">
+        <v>0.14979838000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0.14185929999999999</v>
+      </c>
+      <c r="Z55">
+        <v>0.29755017</v>
+      </c>
+      <c r="AA55">
+        <v>0.29370877000000001</v>
+      </c>
+      <c r="AB55">
+        <v>0.31526417000000001</v>
+      </c>
+      <c r="AC55">
+        <v>0.28886873000000002</v>
+      </c>
+      <c r="AD55">
+        <v>0.9318881</v>
+      </c>
+      <c r="AE55">
+        <v>0.84412279999999995</v>
+      </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3099,8 +5815,56 @@
       <c r="O56">
         <v>0.3740967</v>
       </c>
+      <c r="P56">
+        <v>7.7002710000000002E-2</v>
+      </c>
+      <c r="Q56">
+        <v>0.16197576999999999</v>
+      </c>
+      <c r="R56">
+        <v>5.0371814999999997E-3</v>
+      </c>
+      <c r="S56">
+        <v>0.10001176000000001</v>
+      </c>
+      <c r="T56">
+        <v>0.26539560000000001</v>
+      </c>
+      <c r="U56">
+        <v>1.709302E-2</v>
+      </c>
+      <c r="V56">
+        <v>0.60046250000000001</v>
+      </c>
+      <c r="W56">
+        <v>0.66655576000000005</v>
+      </c>
+      <c r="X56">
+        <v>2.8945096E-2</v>
+      </c>
+      <c r="Y56">
+        <v>0.15011862000000001</v>
+      </c>
+      <c r="Z56">
+        <v>0.47712159999999998</v>
+      </c>
+      <c r="AA56">
+        <v>0.51646197000000005</v>
+      </c>
+      <c r="AB56">
+        <v>0.18926121000000001</v>
+      </c>
+      <c r="AC56">
+        <v>0.21431495</v>
+      </c>
+      <c r="AD56">
+        <v>0.55344194000000002</v>
+      </c>
+      <c r="AE56">
+        <v>0.55691360000000001</v>
+      </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3146,8 +5910,56 @@
       <c r="O57">
         <v>0.53441446999999997</v>
       </c>
+      <c r="P57">
+        <v>7.5650029999999993E-2</v>
+      </c>
+      <c r="Q57">
+        <v>0.26606693999999997</v>
+      </c>
+      <c r="R57">
+        <v>4.6890000000000001E-2</v>
+      </c>
+      <c r="S57">
+        <v>0.24777627999999999</v>
+      </c>
+      <c r="T57">
+        <v>0.56182900000000002</v>
+      </c>
+      <c r="U57">
+        <v>0.76011384000000004</v>
+      </c>
+      <c r="V57">
+        <v>0.94363269999999999</v>
+      </c>
+      <c r="W57">
+        <v>0.91844369999999997</v>
+      </c>
+      <c r="X57">
+        <v>3.1247563999999999E-2</v>
+      </c>
+      <c r="Y57">
+        <v>0.14220864999999999</v>
+      </c>
+      <c r="Z57">
+        <v>0.88413870000000006</v>
+      </c>
+      <c r="AA57">
+        <v>0.80178629999999995</v>
+      </c>
+      <c r="AB57">
+        <v>0.23475051</v>
+      </c>
+      <c r="AC57">
+        <v>0.35552073000000001</v>
+      </c>
+      <c r="AD57">
+        <v>0.95824264999999997</v>
+      </c>
+      <c r="AE57">
+        <v>0.92093146000000004</v>
+      </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3193,8 +6005,56 @@
       <c r="O58">
         <v>0.42237520000000001</v>
       </c>
+      <c r="P58">
+        <v>4.4616409999999997E-3</v>
+      </c>
+      <c r="Q58">
+        <v>0.38188403999999998</v>
+      </c>
+      <c r="R58">
+        <v>5.7908765000000005E-4</v>
+      </c>
+      <c r="S58">
+        <v>0.46085683</v>
+      </c>
+      <c r="T58">
+        <v>0.41323647000000002</v>
+      </c>
+      <c r="U58">
+        <v>0.32946816000000001</v>
+      </c>
+      <c r="V58">
+        <v>3.0419470000000001E-2</v>
+      </c>
+      <c r="W58">
+        <v>2.0540269999999999E-2</v>
+      </c>
+      <c r="X58">
+        <v>5.6794174000000003E-2</v>
+      </c>
+      <c r="Y58">
+        <v>0.1241741</v>
+      </c>
+      <c r="Z58">
+        <v>0.35441879999999998</v>
+      </c>
+      <c r="AA58">
+        <v>0.38887325</v>
+      </c>
+      <c r="AB58">
+        <v>5.1520641999999998E-2</v>
+      </c>
+      <c r="AC58">
+        <v>0.14514956000000001</v>
+      </c>
+      <c r="AD58">
+        <v>1.8096212E-2</v>
+      </c>
+      <c r="AE58">
+        <v>6.3851506000000002E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3240,8 +6100,56 @@
       <c r="O59">
         <v>0.27169943000000002</v>
       </c>
+      <c r="P59">
+        <v>8.9455664000000004E-2</v>
+      </c>
+      <c r="Q59">
+        <v>0.117723815</v>
+      </c>
+      <c r="R59">
+        <v>3.7131129999999998E-2</v>
+      </c>
+      <c r="S59">
+        <v>8.4171129999999997E-2</v>
+      </c>
+      <c r="T59">
+        <v>0.32184055</v>
+      </c>
+      <c r="U59">
+        <v>8.4914509999999999E-2</v>
+      </c>
+      <c r="V59">
+        <v>0.27372005999999999</v>
+      </c>
+      <c r="W59">
+        <v>0.38443184000000002</v>
+      </c>
+      <c r="X59">
+        <v>0.12453967000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0.35972238000000001</v>
+      </c>
+      <c r="Z59">
+        <v>0.86493339999999996</v>
+      </c>
+      <c r="AA59">
+        <v>0.77306587000000004</v>
+      </c>
+      <c r="AB59">
+        <v>0.49302104000000002</v>
+      </c>
+      <c r="AC59">
+        <v>0.41173320000000002</v>
+      </c>
+      <c r="AD59">
+        <v>0.9268073</v>
+      </c>
+      <c r="AE59">
+        <v>0.80544733999999996</v>
+      </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3287,8 +6195,56 @@
       <c r="O60">
         <v>0.52256480000000005</v>
       </c>
+      <c r="P60">
+        <v>1.0993642E-2</v>
+      </c>
+      <c r="Q60">
+        <v>0.37616717999999999</v>
+      </c>
+      <c r="R60">
+        <v>1.9376193999999999E-3</v>
+      </c>
+      <c r="S60">
+        <v>0.24559654</v>
+      </c>
+      <c r="T60">
+        <v>0.39516025999999999</v>
+      </c>
+      <c r="U60">
+        <v>0.60653453999999996</v>
+      </c>
+      <c r="V60">
+        <v>0.48776245000000001</v>
+      </c>
+      <c r="W60">
+        <v>0.24812558000000001</v>
+      </c>
+      <c r="X60">
+        <v>0.31925225000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0.48041194999999998</v>
+      </c>
+      <c r="Z60">
+        <v>9.2157340000000004E-2</v>
+      </c>
+      <c r="AA60">
+        <v>0.2194818</v>
+      </c>
+      <c r="AB60">
+        <v>0.29908477999999999</v>
+      </c>
+      <c r="AC60">
+        <v>0.32474681999999999</v>
+      </c>
+      <c r="AD60">
+        <v>0.44954786000000002</v>
+      </c>
+      <c r="AE60">
+        <v>0.40290189999999998</v>
+      </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -3334,8 +6290,56 @@
       <c r="O61">
         <v>0.56462866</v>
       </c>
+      <c r="P61">
+        <v>5.4406844000000003E-2</v>
+      </c>
+      <c r="Q61">
+        <v>0.23726457000000001</v>
+      </c>
+      <c r="R61">
+        <v>8.9001659999999996E-2</v>
+      </c>
+      <c r="S61">
+        <v>0.23163069999999999</v>
+      </c>
+      <c r="T61">
+        <v>0.46620392999999999</v>
+      </c>
+      <c r="U61">
+        <v>0.33354296999999999</v>
+      </c>
+      <c r="V61">
+        <v>0.86767039999999995</v>
+      </c>
+      <c r="W61">
+        <v>0.91459650000000003</v>
+      </c>
+      <c r="X61">
+        <v>1.7719503000000001E-2</v>
+      </c>
+      <c r="Y61">
+        <v>0.12092926</v>
+      </c>
+      <c r="Z61">
+        <v>0.68925630000000004</v>
+      </c>
+      <c r="AA61">
+        <v>0.51439226000000005</v>
+      </c>
+      <c r="AB61">
+        <v>0.25344706</v>
+      </c>
+      <c r="AC61">
+        <v>0.16263619000000001</v>
+      </c>
+      <c r="AD61">
+        <v>0.73175369999999995</v>
+      </c>
+      <c r="AE61">
+        <v>0.60727019999999998</v>
+      </c>
     </row>
-    <row r="62" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
@@ -3381,8 +6385,56 @@
       <c r="O62" s="2">
         <v>0.40602582496413198</v>
       </c>
+      <c r="P62" s="2">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0.67718794835007101</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0.90064102564102499</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0.72596843615494899</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0.38472222222222202</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0.359722222222222</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0.76555555555555499</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0.44861111111111102</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0.344444444444444</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0.64222222222222203</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>0.49444444444444402</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>0.47361111111111098</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>0.77888888888888896</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
@@ -3422,8 +6474,62 @@
       <c r="M63" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="N63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE63" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3463,8 +6569,62 @@
       <c r="M64">
         <v>0.7</v>
       </c>
+      <c r="N64">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="O64">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="P64">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="Q64">
+        <v>0.6724</v>
+      </c>
+      <c r="R64">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="S64">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="T64">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="U64">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="V64">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="W64">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="X64">
+        <v>0.6552</v>
+      </c>
+      <c r="Y64">
+        <v>0.6552</v>
+      </c>
+      <c r="Z64">
+        <v>0.65</v>
+      </c>
+      <c r="AA64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB64">
+        <v>0.6724</v>
+      </c>
+      <c r="AC64">
+        <v>0.6724</v>
+      </c>
+      <c r="AD64">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="AE64">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -3504,8 +6664,62 @@
       <c r="M65">
         <v>0.93330000000000002</v>
       </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="Q65">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="R65">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="S65">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="T65">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="U65">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="V65">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="W65">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="X65">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0.1111</v>
+      </c>
+      <c r="Z65">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AA65">
+        <v>0.5333</v>
+      </c>
+      <c r="AB65">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="AC65">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="AD65">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="AE65">
+        <v>0.73329999999999995</v>
+      </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3544,6 +6758,60 @@
       </c>
       <c r="M66">
         <v>0.4667</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="T66">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="U66">
+        <v>0.75</v>
+      </c>
+      <c r="V66">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="W66">
+        <v>0.7</v>
+      </c>
+      <c r="X66">
+        <v>0.875</v>
+      </c>
+      <c r="Y66">
+        <v>0.9</v>
+      </c>
+      <c r="Z66">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="AA66">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="AB66">
+        <v>0.9</v>
+      </c>
+      <c r="AC66">
+        <v>0.9</v>
+      </c>
+      <c r="AD66">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="AE66">
+        <v>0.76670000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3553,1238 +6821,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F887642E-FC8A-4B2D-B1EC-D676404D667D}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H61"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.73822016460905304</v>
+        <v>0.73743570000000003</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.76256170000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.80876539999999997</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.63144420000000001</v>
       </c>
       <c r="F2">
-        <v>0.94797509999999996</v>
+        <v>0.60719909999999999</v>
       </c>
       <c r="G2">
-        <v>4.7799179999999997E-2</v>
-      </c>
-      <c r="H2">
-        <v>4.2257500000000003E-3</v>
+        <v>0.66661649999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0.61052490000000004</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.62786790000000003</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.71982760000000001</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.43677769999999999</v>
       </c>
       <c r="F3">
-        <v>0.31206574999999998</v>
+        <v>0.48618719999999999</v>
       </c>
       <c r="G3">
-        <v>0.67777980000000004</v>
-      </c>
-      <c r="H3">
-        <v>1.015449E-2</v>
+        <v>0.56154159999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0.91325429999999996</v>
+      </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.89343479999999997</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.93098780000000003</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.82783960000000001</v>
       </c>
       <c r="F4">
-        <v>0.98150163999999995</v>
+        <v>0.75157180000000001</v>
       </c>
       <c r="G4">
-        <v>1.338051E-2</v>
-      </c>
-      <c r="H4">
-        <v>5.1178700000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1.9676240000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.97217379999999998</v>
-      </c>
-      <c r="H5">
-        <v>8.1499499999999996E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.18532418000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.66364489999999998</v>
-      </c>
-      <c r="H6">
-        <v>0.15103093000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5.7427400000000003E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.92131925000000003</v>
-      </c>
-      <c r="H7">
-        <v>2.1253399999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.37167139999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.54517720000000003</v>
-      </c>
-      <c r="H8">
-        <v>8.3151390000000006E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.61593920000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.34847193999999998</v>
-      </c>
-      <c r="H9">
-        <v>3.5588849999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.36717808000000002</v>
-      </c>
-      <c r="G10">
-        <v>0.62524027000000004</v>
-      </c>
-      <c r="H10">
-        <v>7.5816299999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.4047019</v>
-      </c>
-      <c r="G11">
-        <v>0.44863029999999998</v>
-      </c>
-      <c r="H11">
-        <v>0.14666779999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4.265679E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.92608749999999995</v>
-      </c>
-      <c r="H12">
-        <v>3.1255669999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.29399425000000001</v>
-      </c>
-      <c r="G13">
-        <v>0.18736652000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.51863919999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.94292180000000003</v>
-      </c>
-      <c r="G14">
-        <v>3.5762839999999997E-2</v>
-      </c>
-      <c r="H14">
-        <v>2.1315310000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.24822127999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.54425109999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.20752764000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.96307569999999998</v>
-      </c>
-      <c r="G16">
-        <v>2.1362840000000001E-2</v>
-      </c>
-      <c r="H16">
-        <v>1.55614E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0.20561613000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.76034844000000001</v>
-      </c>
-      <c r="H17">
-        <v>3.4035410000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>6.7096180000000005E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.90539259999999999</v>
-      </c>
-      <c r="H18">
-        <v>2.7511239999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0.60568862999999995</v>
-      </c>
-      <c r="G19">
-        <v>0.29381984</v>
-      </c>
-      <c r="H19">
-        <v>0.10049155</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0.22969534</v>
-      </c>
-      <c r="G20">
-        <v>0.35631528000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.41398937000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.72896284</v>
-      </c>
-      <c r="G21">
-        <v>0.23985463000000001</v>
-      </c>
-      <c r="H21">
-        <v>3.1182499999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>6.5861520000000007E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.86738663999999999</v>
-      </c>
-      <c r="H22">
-        <v>6.6751820000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0.93508195999999999</v>
-      </c>
-      <c r="G23">
-        <v>5.390172E-2</v>
-      </c>
-      <c r="H23">
-        <v>1.101632E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>9.3808599999999995E-3</v>
-      </c>
-      <c r="G24">
-        <v>0.97455263000000003</v>
-      </c>
-      <c r="H24">
-        <v>1.6066529999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0.75048389999999998</v>
-      </c>
-      <c r="G25">
-        <v>0.20840988999999999</v>
-      </c>
-      <c r="H25">
-        <v>4.1106219999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>6.3166390000000003E-2</v>
-      </c>
-      <c r="G26">
-        <v>0.90586929999999999</v>
-      </c>
-      <c r="H26">
-        <v>3.09643E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0.23071204000000001</v>
-      </c>
-      <c r="G27">
-        <v>0.50241524000000004</v>
-      </c>
-      <c r="H27">
-        <v>0.26687275999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>6.9626999999999996E-3</v>
-      </c>
-      <c r="G28">
-        <v>0.96297790000000005</v>
-      </c>
-      <c r="H28">
-        <v>3.0059430000000002E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.20812953000000001</v>
-      </c>
-      <c r="G29">
-        <v>0.68744886000000005</v>
-      </c>
-      <c r="H29">
-        <v>0.10442158999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0.49826693999999999</v>
-      </c>
-      <c r="G30">
-        <v>0.47082457</v>
-      </c>
-      <c r="H30">
-        <v>3.0908540000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0.14816832999999999</v>
-      </c>
-      <c r="G31">
-        <v>0.84331449999999997</v>
-      </c>
-      <c r="H31">
-        <v>8.5172200000000007E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0.9553739</v>
-      </c>
-      <c r="G32">
-        <v>3.2214930000000003E-2</v>
-      </c>
-      <c r="H32">
-        <v>1.2411159999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.27290350000000002</v>
-      </c>
-      <c r="G33">
-        <v>0.71690893</v>
-      </c>
-      <c r="H33">
-        <v>1.018756E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0.97353009999999995</v>
-      </c>
-      <c r="G34">
-        <v>2.105425E-2</v>
-      </c>
-      <c r="H34">
-        <v>5.4156100000000004E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0.34079775000000001</v>
-      </c>
-      <c r="G35">
-        <v>0.62261619999999995</v>
-      </c>
-      <c r="H35">
-        <v>3.658608E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0.98283790000000004</v>
-      </c>
-      <c r="G36">
-        <v>1.2540030000000001E-2</v>
-      </c>
-      <c r="H36">
-        <v>4.6221099999999996E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0.77906006999999999</v>
-      </c>
-      <c r="G37">
-        <v>7.1759799999999999E-2</v>
-      </c>
-      <c r="H37">
-        <v>0.14918011</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0.38645889999999999</v>
-      </c>
-      <c r="G38">
-        <v>5.3191500000000003E-2</v>
-      </c>
-      <c r="H38">
-        <v>0.5603496</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0.96604109999999999</v>
-      </c>
-      <c r="G39">
-        <v>2.3468119999999999E-2</v>
-      </c>
-      <c r="H39">
-        <v>1.049077E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0.56077670000000002</v>
-      </c>
-      <c r="G40">
-        <v>0.26936125999999999</v>
-      </c>
-      <c r="H40">
-        <v>0.16986202</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>6.5322710000000006E-2</v>
-      </c>
-      <c r="G41">
-        <v>0.74665636000000002</v>
-      </c>
-      <c r="H41">
-        <v>0.18802095999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0.95939430000000003</v>
-      </c>
-      <c r="G42">
-        <v>3.8184490000000001E-2</v>
-      </c>
-      <c r="H42">
-        <v>2.4212499999999998E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0.73404429999999998</v>
-      </c>
-      <c r="G43">
-        <v>0.17928806999999999</v>
-      </c>
-      <c r="H43">
-        <v>8.6667549999999996E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0.81322439999999996</v>
-      </c>
-      <c r="G44">
-        <v>0.12018648</v>
-      </c>
-      <c r="H44">
-        <v>6.6589159999999994E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0.96056615999999995</v>
-      </c>
-      <c r="G45">
-        <v>3.5486999999999998E-2</v>
-      </c>
-      <c r="H45">
-        <v>3.94686E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0.7393594</v>
-      </c>
-      <c r="G46">
-        <v>0.18858352</v>
-      </c>
-      <c r="H46">
-        <v>7.2057140000000006E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0.96442519999999998</v>
-      </c>
-      <c r="G47">
-        <v>3.29524E-2</v>
-      </c>
-      <c r="H47">
-        <v>2.6223599999999998E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0.97853356999999996</v>
-      </c>
-      <c r="G48">
-        <v>8.2135999999999997E-3</v>
-      </c>
-      <c r="H48">
-        <v>1.325285E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0.98558009999999996</v>
-      </c>
-      <c r="G49">
-        <v>1.062919E-2</v>
-      </c>
-      <c r="H49">
-        <v>3.79079E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0.70466700000000004</v>
-      </c>
-      <c r="G50">
-        <v>0.27930906</v>
-      </c>
-      <c r="H50">
-        <v>1.6024E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0.96163770000000004</v>
-      </c>
-      <c r="G51">
-        <v>3.0174320000000001E-2</v>
-      </c>
-      <c r="H51">
-        <v>8.1880000000000008E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>2.0002599999999999E-2</v>
-      </c>
-      <c r="G52">
-        <v>0.89470744000000002</v>
-      </c>
-      <c r="H52">
-        <v>8.528993E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0.95254559999999999</v>
-      </c>
-      <c r="G53">
-        <v>3.9159520000000003E-2</v>
-      </c>
-      <c r="H53">
-        <v>8.2949400000000006E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0.64359516000000005</v>
-      </c>
-      <c r="G54">
-        <v>0.34655649999999999</v>
-      </c>
-      <c r="H54">
-        <v>9.8482900000000009E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1.939132E-2</v>
-      </c>
-      <c r="G55">
-        <v>0.87173520000000004</v>
-      </c>
-      <c r="H55">
-        <v>0.10887347</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0.12986945999999999</v>
-      </c>
-      <c r="G56">
-        <v>0.73500586000000001</v>
-      </c>
-      <c r="H56">
-        <v>0.13512467</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1.0943080000000001E-2</v>
-      </c>
-      <c r="G57">
-        <v>0.97254750000000001</v>
-      </c>
-      <c r="H57">
-        <v>1.6509469999999998E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0.92303769999999996</v>
-      </c>
-      <c r="G58">
-        <v>6.9230379999999994E-2</v>
-      </c>
-      <c r="H58">
-        <v>7.73188E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0.84209800000000001</v>
-      </c>
-      <c r="G59">
-        <v>0.13392006000000001</v>
-      </c>
-      <c r="H59">
-        <v>2.398192E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0.75464589999999998</v>
-      </c>
-      <c r="G60">
-        <v>0.15344310999999999</v>
-      </c>
-      <c r="H60">
-        <v>9.1911030000000005E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0.33372536000000003</v>
-      </c>
-      <c r="G61">
-        <v>0.64114519999999997</v>
-      </c>
-      <c r="H61">
-        <v>2.512936E-2</v>
+        <v>0.78683579999999997</v>
       </c>
     </row>
   </sheetData>
